--- a/Propeller Packages/APC_11x7/ClvsAlpha_RPM5000.xlsx
+++ b/Propeller Packages/APC_11x7/ClvsAlpha_RPM5000.xlsx
@@ -115,52 +115,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN32"/>
+  <dimension ref="A1:AN27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.85546875" customWidth="true"/>
-    <col min="2" max="2" width="7.42578125" customWidth="true"/>
-    <col min="3" max="3" width="3.85546875" customWidth="true"/>
-    <col min="4" max="4" width="7.42578125" customWidth="true"/>
-    <col min="5" max="5" width="3.85546875" customWidth="true"/>
-    <col min="6" max="6" width="7.42578125" customWidth="true"/>
-    <col min="7" max="7" width="3.85546875" customWidth="true"/>
-    <col min="8" max="8" width="7.42578125" customWidth="true"/>
-    <col min="9" max="9" width="3.85546875" customWidth="true"/>
-    <col min="10" max="10" width="7.42578125" customWidth="true"/>
-    <col min="11" max="11" width="3.85546875" customWidth="true"/>
-    <col min="12" max="12" width="7.42578125" customWidth="true"/>
-    <col min="13" max="13" width="3.85546875" customWidth="true"/>
-    <col min="14" max="14" width="7.42578125" customWidth="true"/>
-    <col min="15" max="15" width="3.85546875" customWidth="true"/>
-    <col min="16" max="16" width="7.42578125" customWidth="true"/>
-    <col min="17" max="17" width="3.85546875" customWidth="true"/>
-    <col min="18" max="18" width="7.42578125" customWidth="true"/>
-    <col min="19" max="19" width="3.85546875" customWidth="true"/>
-    <col min="20" max="20" width="7.42578125" customWidth="true"/>
-    <col min="21" max="21" width="3.85546875" customWidth="true"/>
-    <col min="22" max="22" width="7.42578125" customWidth="true"/>
-    <col min="23" max="23" width="3.85546875" customWidth="true"/>
-    <col min="24" max="24" width="7.42578125" customWidth="true"/>
-    <col min="25" max="25" width="3.85546875" customWidth="true"/>
-    <col min="26" max="26" width="7.42578125" customWidth="true"/>
-    <col min="27" max="27" width="3.85546875" customWidth="true"/>
-    <col min="28" max="28" width="7.42578125" customWidth="true"/>
-    <col min="29" max="29" width="3.85546875" customWidth="true"/>
-    <col min="30" max="30" width="7.42578125" customWidth="true"/>
-    <col min="31" max="31" width="3.85546875" customWidth="true"/>
-    <col min="32" max="32" width="7.42578125" customWidth="true"/>
-    <col min="33" max="33" width="3.85546875" customWidth="true"/>
-    <col min="34" max="34" width="7.42578125" customWidth="true"/>
-    <col min="35" max="35" width="3.85546875" customWidth="true"/>
-    <col min="36" max="36" width="7.42578125" customWidth="true"/>
-    <col min="37" max="37" width="3.85546875" customWidth="true"/>
-    <col min="38" max="38" width="7.42578125" customWidth="true"/>
-    <col min="39" max="39" width="3.85546875" customWidth="true"/>
-    <col min="40" max="40" width="7.42578125" customWidth="true"/>
+    <col min="1" max="1" width="3.6640625" customWidth="true"/>
+    <col min="2" max="2" width="7.21875" customWidth="true"/>
+    <col min="3" max="3" width="3.6640625" customWidth="true"/>
+    <col min="4" max="4" width="7.21875" customWidth="true"/>
+    <col min="5" max="5" width="3.6640625" customWidth="true"/>
+    <col min="6" max="6" width="7.21875" customWidth="true"/>
+    <col min="7" max="7" width="3.6640625" customWidth="true"/>
+    <col min="8" max="8" width="7.21875" customWidth="true"/>
+    <col min="9" max="9" width="3.6640625" customWidth="true"/>
+    <col min="10" max="10" width="7.21875" customWidth="true"/>
+    <col min="11" max="11" width="3.6640625" customWidth="true"/>
+    <col min="12" max="12" width="7.21875" customWidth="true"/>
+    <col min="13" max="13" width="3.6640625" customWidth="true"/>
+    <col min="14" max="14" width="7.21875" customWidth="true"/>
+    <col min="15" max="15" width="3.6640625" customWidth="true"/>
+    <col min="16" max="16" width="7.21875" customWidth="true"/>
+    <col min="17" max="17" width="3.6640625" customWidth="true"/>
+    <col min="18" max="18" width="7.21875" customWidth="true"/>
+    <col min="19" max="19" width="3.6640625" customWidth="true"/>
+    <col min="20" max="20" width="7.21875" customWidth="true"/>
+    <col min="21" max="21" width="3.6640625" customWidth="true"/>
+    <col min="22" max="22" width="7.21875" customWidth="true"/>
+    <col min="23" max="23" width="3.6640625" customWidth="true"/>
+    <col min="24" max="24" width="7.21875" customWidth="true"/>
+    <col min="25" max="25" width="3.6640625" customWidth="true"/>
+    <col min="26" max="26" width="7.21875" customWidth="true"/>
+    <col min="27" max="27" width="3.6640625" customWidth="true"/>
+    <col min="28" max="28" width="7.21875" customWidth="true"/>
+    <col min="29" max="29" width="3" customWidth="true"/>
+    <col min="30" max="30" width="7.21875" customWidth="true"/>
+    <col min="31" max="31" width="3.6640625" customWidth="true"/>
+    <col min="32" max="32" width="7.21875" customWidth="true"/>
+    <col min="33" max="33" width="3.6640625" customWidth="true"/>
+    <col min="34" max="34" width="7.21875" customWidth="true"/>
+    <col min="35" max="35" width="3.6640625" customWidth="true"/>
+    <col min="36" max="36" width="7.21875" customWidth="true"/>
+    <col min="37" max="37" width="3.6640625" customWidth="true"/>
+    <col min="38" max="38" width="7.21875" customWidth="true"/>
+    <col min="39" max="39" width="3.6640625" customWidth="true"/>
+    <col min="40" max="40" width="7.21875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -287,3676 +287,3096 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-15</v>
+        <v>-10</v>
       </c>
       <c r="B2" s="0">
-        <v>-0.21909999999999999</v>
+        <v>-0.2656</v>
       </c>
       <c r="C2" s="0">
-        <v>-15</v>
+        <v>-10</v>
       </c>
       <c r="D2" s="0">
-        <v>-0.2215</v>
+        <v>-0.093799999999999995</v>
       </c>
       <c r="E2" s="0">
-        <v>-15</v>
+        <v>-10</v>
       </c>
       <c r="F2" s="0">
-        <v>-0.073499999999999996</v>
+        <v>0.019099999999999999</v>
       </c>
       <c r="G2" s="0">
-        <v>-15</v>
+        <v>-10</v>
       </c>
       <c r="H2" s="0">
-        <v>-0.12720000000000001</v>
+        <v>0.0253</v>
       </c>
       <c r="I2" s="0">
-        <v>-15</v>
+        <v>-10</v>
       </c>
       <c r="J2" s="0">
-        <v>-0.1542</v>
+        <v>0.028299999999999999</v>
       </c>
       <c r="K2" s="0">
-        <v>-15</v>
+        <v>-10</v>
       </c>
       <c r="L2" s="0">
-        <v>-0.2094</v>
+        <v>-0.012</v>
       </c>
       <c r="M2" s="0">
-        <v>-15</v>
+        <v>-10</v>
       </c>
       <c r="N2" s="0">
-        <v>-0.2422</v>
+        <v>-0.042900000000000001</v>
       </c>
       <c r="O2" s="0">
-        <v>-15</v>
+        <v>-10</v>
       </c>
       <c r="P2" s="0">
-        <v>-0.24410000000000001</v>
+        <v>-0.096699999999999994</v>
       </c>
       <c r="Q2" s="0">
-        <v>-15</v>
+        <v>-10</v>
       </c>
       <c r="R2" s="0">
-        <v>-0.25080000000000002</v>
+        <v>-0.14169999999999999</v>
       </c>
       <c r="S2" s="0">
-        <v>-15</v>
+        <v>-10</v>
       </c>
       <c r="T2" s="0">
-        <v>-0.25490000000000002</v>
+        <v>-0.1709</v>
       </c>
       <c r="U2" s="0">
-        <v>-15</v>
+        <v>-10</v>
       </c>
       <c r="V2" s="0">
-        <v>-0.26719999999999999</v>
+        <v>-0.1993</v>
       </c>
       <c r="W2" s="0">
-        <v>-15</v>
+        <v>-10</v>
       </c>
       <c r="X2" s="0">
-        <v>-0.29509999999999997</v>
+        <v>-0.2326</v>
       </c>
       <c r="Y2" s="0">
-        <v>-15</v>
+        <v>-10</v>
       </c>
       <c r="Z2" s="0">
-        <v>-0.31669999999999998</v>
+        <v>-0.26000000000000001</v>
       </c>
       <c r="AA2" s="0">
-        <v>-15</v>
+        <v>-10</v>
       </c>
       <c r="AB2" s="0">
-        <v>-0.33550000000000002</v>
+        <v>-0.3065</v>
       </c>
       <c r="AC2" s="0">
-        <v>-15</v>
+        <v>-9</v>
       </c>
       <c r="AD2" s="0">
-        <v>-0.3579</v>
+        <v>-0.3382</v>
       </c>
       <c r="AE2" s="0">
-        <v>-15</v>
+        <v>-10</v>
       </c>
       <c r="AF2" s="0">
-        <v>-0.36749999999999999</v>
+        <v>-0.32140000000000002</v>
       </c>
       <c r="AG2" s="0">
-        <v>-15</v>
+        <v>-10</v>
       </c>
       <c r="AH2" s="0">
-        <v>-0.39500000000000002</v>
+        <v>-0.31830000000000003</v>
       </c>
       <c r="AI2" s="0">
-        <v>-15</v>
+        <v>-10</v>
       </c>
       <c r="AJ2" s="0">
-        <v>-0.25619999999999998</v>
+        <v>-0.34410000000000002</v>
       </c>
       <c r="AK2" s="0">
-        <v>-15</v>
+        <v>-10</v>
       </c>
       <c r="AL2" s="0">
-        <v>-0.45069999999999999</v>
+        <v>-0.34439999999999998</v>
       </c>
       <c r="AM2" s="0">
-        <v>-15</v>
+        <v>-10</v>
       </c>
       <c r="AN2" s="0">
-        <v>-0.37580000000000002</v>
+        <v>-0.16980000000000001</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-14</v>
+        <v>-9</v>
       </c>
       <c r="B3" s="0">
-        <v>-0.2293</v>
+        <v>-0.2626</v>
       </c>
       <c r="C3" s="0">
-        <v>-14</v>
+        <v>-9</v>
       </c>
       <c r="D3" s="0">
-        <v>-0.17910000000000001</v>
+        <v>-0.092399999999999996</v>
       </c>
       <c r="E3" s="0">
-        <v>-14</v>
+        <v>-9</v>
       </c>
       <c r="F3" s="0">
-        <v>-0.033000000000000002</v>
+        <v>-0.011900000000000001</v>
       </c>
       <c r="G3" s="0">
-        <v>-14</v>
+        <v>-9</v>
       </c>
       <c r="H3" s="0">
-        <v>-0.066400000000000001</v>
+        <v>0.021100000000000001</v>
       </c>
       <c r="I3" s="0">
-        <v>-14</v>
+        <v>-9</v>
       </c>
       <c r="J3" s="0">
-        <v>-0.10979999999999999</v>
+        <v>-0.018599999999999999</v>
       </c>
       <c r="K3" s="0">
-        <v>-14</v>
+        <v>-9</v>
       </c>
       <c r="L3" s="0">
-        <v>-0.1424</v>
+        <v>-0.0121</v>
       </c>
       <c r="M3" s="0">
-        <v>-14</v>
+        <v>-9</v>
       </c>
       <c r="N3" s="0">
-        <v>-0.21340000000000001</v>
+        <v>-0.057799999999999997</v>
       </c>
       <c r="O3" s="0">
-        <v>-14</v>
+        <v>-9</v>
       </c>
       <c r="P3" s="0">
-        <v>-0.2442</v>
+        <v>-0.095100000000000004</v>
       </c>
       <c r="Q3" s="0">
-        <v>-14</v>
+        <v>-9</v>
       </c>
       <c r="R3" s="0">
-        <v>-0.2419</v>
+        <v>-0.1231</v>
       </c>
       <c r="S3" s="0">
-        <v>-14</v>
+        <v>-9</v>
       </c>
       <c r="T3" s="0">
-        <v>-0.25440000000000002</v>
+        <v>-0.1517</v>
       </c>
       <c r="U3" s="0">
-        <v>-14</v>
+        <v>-9</v>
       </c>
       <c r="V3" s="0">
-        <v>-0.27879999999999999</v>
+        <v>-0.185</v>
       </c>
       <c r="W3" s="0">
-        <v>-14</v>
+        <v>-9</v>
       </c>
       <c r="X3" s="0">
-        <v>-0.26679999999999998</v>
+        <v>-0.21429999999999999</v>
       </c>
       <c r="Y3" s="0">
-        <v>-14</v>
+        <v>-9</v>
       </c>
       <c r="Z3" s="0">
-        <v>-0.28000000000000003</v>
+        <v>-0.2377</v>
       </c>
       <c r="AA3" s="0">
-        <v>-14</v>
+        <v>-9</v>
       </c>
       <c r="AB3" s="0">
-        <v>-0.29759999999999998</v>
+        <v>-0.27489999999999998</v>
       </c>
       <c r="AC3" s="0">
-        <v>-14</v>
+        <v>-8</v>
       </c>
       <c r="AD3" s="0">
-        <v>-0.3206</v>
+        <v>-0.3589</v>
       </c>
       <c r="AE3" s="0">
-        <v>-14</v>
+        <v>-9</v>
       </c>
       <c r="AF3" s="0">
-        <v>-0.35070000000000001</v>
+        <v>-0.36020000000000002</v>
       </c>
       <c r="AG3" s="0">
-        <v>-14</v>
+        <v>-9</v>
       </c>
       <c r="AH3" s="0">
-        <v>-0.35749999999999998</v>
+        <v>-0.37569999999999998</v>
       </c>
       <c r="AI3" s="0">
-        <v>-14</v>
+        <v>-9</v>
       </c>
       <c r="AJ3" s="0">
-        <v>-0.25190000000000001</v>
+        <v>-0.34100000000000003</v>
       </c>
       <c r="AK3" s="0">
-        <v>-14</v>
+        <v>-9</v>
       </c>
       <c r="AL3" s="0">
-        <v>-0.41370000000000001</v>
+        <v>-0.34620000000000001</v>
       </c>
       <c r="AM3" s="0">
-        <v>-14</v>
+        <v>-9</v>
       </c>
       <c r="AN3" s="0">
-        <v>-0.34210000000000002</v>
+        <v>-0.14510000000000001</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-13</v>
+        <v>-8</v>
       </c>
       <c r="B4" s="0">
-        <v>-0.2364</v>
+        <v>-0.34350000000000003</v>
       </c>
       <c r="C4" s="0">
-        <v>-13</v>
+        <v>-8</v>
       </c>
       <c r="D4" s="0">
-        <v>-0.12889999999999999</v>
+        <v>-0.12670000000000001</v>
       </c>
       <c r="E4" s="0">
-        <v>-13</v>
+        <v>-8</v>
       </c>
       <c r="F4" s="0">
-        <v>0.0123</v>
+        <v>-0.042500000000000003</v>
       </c>
       <c r="G4" s="0">
-        <v>-13</v>
+        <v>-8</v>
       </c>
       <c r="H4" s="0">
-        <v>-0.051900000000000002</v>
+        <v>-0.038899999999999997</v>
       </c>
       <c r="I4" s="0">
-        <v>-13</v>
+        <v>-8</v>
       </c>
       <c r="J4" s="0">
-        <v>-0.056500000000000002</v>
+        <v>-0.044299999999999999</v>
       </c>
       <c r="K4" s="0">
-        <v>-13</v>
+        <v>-8</v>
       </c>
       <c r="L4" s="0">
-        <v>-0.098699999999999996</v>
+        <v>-0.048599999999999997</v>
       </c>
       <c r="M4" s="0">
-        <v>-13</v>
+        <v>-8</v>
       </c>
       <c r="N4" s="0">
-        <v>-0.154</v>
+        <v>-0.20319999999999999</v>
       </c>
       <c r="O4" s="0">
-        <v>-13</v>
+        <v>-8</v>
       </c>
       <c r="P4" s="0">
-        <v>-0.2298</v>
+        <v>-0.22370000000000001</v>
       </c>
       <c r="Q4" s="0">
-        <v>-13</v>
+        <v>-8</v>
       </c>
       <c r="R4" s="0">
-        <v>-0.27779999999999999</v>
+        <v>-0.2372</v>
       </c>
       <c r="S4" s="0">
-        <v>-13</v>
+        <v>-8</v>
       </c>
       <c r="T4" s="0">
-        <v>-0.253</v>
+        <v>-0.28399999999999997</v>
       </c>
       <c r="U4" s="0">
-        <v>-13</v>
+        <v>-8</v>
       </c>
       <c r="V4" s="0">
-        <v>-0.25700000000000001</v>
+        <v>-0.30270000000000002</v>
       </c>
       <c r="W4" s="0">
-        <v>-12</v>
+        <v>-8</v>
       </c>
       <c r="X4" s="0">
-        <v>-0.27000000000000002</v>
+        <v>-0.3266</v>
       </c>
       <c r="Y4" s="0">
-        <v>-13</v>
+        <v>-8</v>
       </c>
       <c r="Z4" s="0">
-        <v>-0.28989999999999999</v>
+        <v>-0.34710000000000002</v>
       </c>
       <c r="AA4" s="0">
-        <v>-13</v>
+        <v>-8</v>
       </c>
       <c r="AB4" s="0">
-        <v>-0.30349999999999999</v>
+        <v>-0.32740000000000002</v>
       </c>
       <c r="AC4" s="0">
-        <v>-12</v>
+        <v>-7</v>
       </c>
       <c r="AD4" s="0">
-        <v>-0.28620000000000001</v>
+        <v>-0.32390000000000002</v>
       </c>
       <c r="AE4" s="0">
-        <v>-13</v>
+        <v>-8</v>
       </c>
       <c r="AF4" s="0">
-        <v>-0.31890000000000002</v>
+        <v>-0.3624</v>
       </c>
       <c r="AG4" s="0">
-        <v>-13</v>
+        <v>-8</v>
       </c>
       <c r="AH4" s="0">
-        <v>-0.35780000000000001</v>
+        <v>-0.41289999999999999</v>
       </c>
       <c r="AI4" s="0">
-        <v>-13</v>
+        <v>-8</v>
       </c>
       <c r="AJ4" s="0">
-        <v>-0.24840000000000001</v>
+        <v>-0.41070000000000001</v>
       </c>
       <c r="AK4" s="0">
-        <v>-13</v>
+        <v>-8</v>
       </c>
       <c r="AL4" s="0">
-        <v>-0.38750000000000001</v>
+        <v>-0.38850000000000001</v>
       </c>
       <c r="AM4" s="0">
-        <v>-13</v>
+        <v>-8</v>
       </c>
       <c r="AN4" s="0">
-        <v>-0.31</v>
+        <v>-0.1253</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-12</v>
+        <v>-7</v>
       </c>
       <c r="B5" s="0">
-        <v>-0.2417</v>
+        <v>-0.37830000000000003</v>
       </c>
       <c r="C5" s="0">
-        <v>-12</v>
+        <v>-7</v>
       </c>
       <c r="D5" s="0">
-        <v>-0.12230000000000001</v>
+        <v>-0.16220000000000001</v>
       </c>
       <c r="E5" s="0">
-        <v>-12</v>
+        <v>-7</v>
       </c>
       <c r="F5" s="0">
-        <v>0.019199999999999998</v>
+        <v>-0.1167</v>
       </c>
       <c r="G5" s="0">
-        <v>-12</v>
+        <v>-7</v>
       </c>
       <c r="H5" s="0">
-        <v>0.0095999999999999992</v>
+        <v>-0.13980000000000001</v>
       </c>
       <c r="I5" s="0">
-        <v>-12</v>
+        <v>-7</v>
       </c>
       <c r="J5" s="0">
-        <v>-0.031800000000000002</v>
+        <v>-0.22850000000000001</v>
       </c>
       <c r="K5" s="0">
-        <v>-12</v>
+        <v>-7</v>
       </c>
       <c r="L5" s="0">
-        <v>-0.038199999999999998</v>
+        <v>-0.2125</v>
       </c>
       <c r="M5" s="0">
-        <v>-12</v>
+        <v>-7</v>
       </c>
       <c r="N5" s="0">
-        <v>-0.11799999999999999</v>
+        <v>-0.26029999999999998</v>
       </c>
       <c r="O5" s="0">
-        <v>-12</v>
+        <v>-7</v>
       </c>
       <c r="P5" s="0">
-        <v>-0.16139999999999999</v>
+        <v>-0.25419999999999998</v>
       </c>
       <c r="Q5" s="0">
-        <v>-12</v>
+        <v>-7</v>
       </c>
       <c r="R5" s="0">
-        <v>-0.2019</v>
+        <v>-0.2475</v>
       </c>
       <c r="S5" s="0">
-        <v>-12</v>
+        <v>-7</v>
       </c>
       <c r="T5" s="0">
-        <v>-0.25340000000000001</v>
+        <v>-0.25690000000000002</v>
       </c>
       <c r="U5" s="0">
-        <v>-12</v>
+        <v>-7</v>
       </c>
       <c r="V5" s="0">
-        <v>-0.2772</v>
+        <v>-0.26250000000000001</v>
       </c>
       <c r="W5" s="0">
-        <v>-11</v>
+        <v>-7</v>
       </c>
       <c r="X5" s="0">
-        <v>-0.27539999999999998</v>
+        <v>-0.27029999999999999</v>
       </c>
       <c r="Y5" s="0">
-        <v>-12</v>
+        <v>-7</v>
       </c>
       <c r="Z5" s="0">
-        <v>-0.3004</v>
+        <v>-0.28199999999999997</v>
       </c>
       <c r="AA5" s="0">
-        <v>-12</v>
+        <v>-7</v>
       </c>
       <c r="AB5" s="0">
-        <v>-0.27579999999999999</v>
+        <v>-0.30020000000000002</v>
       </c>
       <c r="AC5" s="0">
-        <v>-11</v>
+        <v>-6</v>
       </c>
       <c r="AD5" s="0">
-        <v>-0.30599999999999999</v>
+        <v>-0.23330000000000001</v>
       </c>
       <c r="AE5" s="0">
-        <v>-12</v>
+        <v>-7</v>
       </c>
       <c r="AF5" s="0">
-        <v>-0.31780000000000003</v>
+        <v>-0.34670000000000001</v>
       </c>
       <c r="AG5" s="0">
-        <v>-12</v>
+        <v>-7</v>
       </c>
       <c r="AH5" s="0">
-        <v>-0.31680000000000003</v>
+        <v>-0.39119999999999999</v>
       </c>
       <c r="AI5" s="0">
-        <v>-12</v>
+        <v>-7</v>
       </c>
       <c r="AJ5" s="0">
-        <v>-0.23599999999999999</v>
+        <v>-0.46479999999999999</v>
       </c>
       <c r="AK5" s="0">
-        <v>-12</v>
+        <v>-7</v>
       </c>
       <c r="AL5" s="0">
-        <v>-0.36849999999999999</v>
+        <v>-0.41660000000000003</v>
       </c>
       <c r="AM5" s="0">
-        <v>-12</v>
+        <v>-7</v>
       </c>
       <c r="AN5" s="0">
-        <v>-0.28010000000000002</v>
+        <v>-0.112</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-11</v>
+        <v>-6</v>
       </c>
       <c r="B6" s="0">
-        <v>-0.247</v>
+        <v>-0.4143</v>
       </c>
       <c r="C6" s="0">
-        <v>-11</v>
+        <v>-6</v>
       </c>
       <c r="D6" s="0">
-        <v>-0.075800000000000006</v>
+        <v>-0.23999999999999999</v>
       </c>
       <c r="E6" s="0">
-        <v>-11</v>
+        <v>-6</v>
       </c>
       <c r="F6" s="0">
-        <v>0.029100000000000001</v>
+        <v>-0.27450000000000002</v>
       </c>
       <c r="G6" s="0">
-        <v>-11</v>
+        <v>-6</v>
       </c>
       <c r="H6" s="0">
-        <v>0.021499999999999998</v>
+        <v>-0.25940000000000002</v>
       </c>
       <c r="I6" s="0">
-        <v>-11</v>
+        <v>-6</v>
       </c>
       <c r="J6" s="0">
-        <v>0.0112</v>
+        <v>-0.27360000000000001</v>
       </c>
       <c r="K6" s="0">
-        <v>-11</v>
+        <v>-6</v>
       </c>
       <c r="L6" s="0">
-        <v>-0.00059999999999999995</v>
+        <v>-0.27300000000000002</v>
       </c>
       <c r="M6" s="0">
-        <v>-11</v>
+        <v>-6</v>
       </c>
       <c r="N6" s="0">
-        <v>-0.072099999999999997</v>
+        <v>-0.23269999999999999</v>
       </c>
       <c r="O6" s="0">
-        <v>-11</v>
+        <v>-6</v>
       </c>
       <c r="P6" s="0">
-        <v>-0.12839999999999999</v>
+        <v>-0.19819999999999999</v>
       </c>
       <c r="Q6" s="0">
-        <v>-11</v>
+        <v>-6</v>
       </c>
       <c r="R6" s="0">
-        <v>-0.16539999999999999</v>
+        <v>-0.1908</v>
       </c>
       <c r="S6" s="0">
-        <v>-11</v>
+        <v>-6</v>
       </c>
       <c r="T6" s="0">
-        <v>-0.20069999999999999</v>
+        <v>-0.17150000000000001</v>
       </c>
       <c r="U6" s="0">
-        <v>-10</v>
+        <v>-6</v>
       </c>
       <c r="V6" s="0">
-        <v>-0.1993</v>
+        <v>-0.17910000000000001</v>
       </c>
       <c r="W6" s="0">
-        <v>-10</v>
+        <v>-6</v>
       </c>
       <c r="X6" s="0">
-        <v>-0.23250000000000001</v>
+        <v>-0.1815</v>
       </c>
       <c r="Y6" s="0">
-        <v>-11</v>
+        <v>-6</v>
       </c>
       <c r="Z6" s="0">
-        <v>-0.29270000000000002</v>
+        <v>-0.1898</v>
       </c>
       <c r="AA6" s="0">
-        <v>-11</v>
+        <v>-6</v>
       </c>
       <c r="AB6" s="0">
-        <v>-0.30909999999999999</v>
+        <v>-0.2059</v>
       </c>
       <c r="AC6" s="0">
-        <v>-10</v>
+        <v>-5</v>
       </c>
       <c r="AD6" s="0">
-        <v>-0.3261</v>
+        <v>-0.1217</v>
       </c>
       <c r="AE6" s="0">
-        <v>-11</v>
+        <v>-6</v>
       </c>
       <c r="AF6" s="0">
-        <v>-0.32779999999999998</v>
+        <v>-0.2666</v>
       </c>
       <c r="AG6" s="0">
-        <v>-11</v>
+        <v>-6</v>
       </c>
       <c r="AH6" s="0">
-        <v>-0.32250000000000001</v>
+        <v>-0.31030000000000002</v>
       </c>
       <c r="AI6" s="0">
-        <v>-11</v>
+        <v>-6</v>
       </c>
       <c r="AJ6" s="0">
-        <v>-0.2535</v>
+        <v>-0.39240000000000003</v>
       </c>
       <c r="AK6" s="0">
-        <v>-11</v>
+        <v>-6</v>
       </c>
       <c r="AL6" s="0">
-        <v>-0.34460000000000002</v>
+        <v>-0.43969999999999998</v>
       </c>
       <c r="AM6" s="0">
-        <v>-11</v>
+        <v>-6</v>
       </c>
       <c r="AN6" s="0">
-        <v>-0.253</v>
+        <v>-0.107</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-10</v>
+        <v>-5</v>
       </c>
       <c r="B7" s="0">
-        <v>-0.26519999999999999</v>
+        <v>-0.45760000000000001</v>
       </c>
       <c r="C7" s="0">
-        <v>-10</v>
+        <v>-5</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.062300000000000001</v>
+        <v>-0.35239999999999999</v>
       </c>
       <c r="E7" s="0">
-        <v>-10</v>
+        <v>-5</v>
       </c>
       <c r="F7" s="0">
-        <v>0.016400000000000001</v>
+        <v>-0.39140000000000003</v>
       </c>
       <c r="G7" s="0">
-        <v>-10</v>
+        <v>-5</v>
       </c>
       <c r="H7" s="0">
-        <v>0.0253</v>
+        <v>-0.25669999999999998</v>
       </c>
       <c r="I7" s="0">
-        <v>-10</v>
+        <v>-5</v>
       </c>
       <c r="J7" s="0">
-        <v>0.028299999999999999</v>
+        <v>-0.23999999999999999</v>
       </c>
       <c r="K7" s="0">
-        <v>-10</v>
+        <v>-5</v>
       </c>
       <c r="L7" s="0">
-        <v>-0.012</v>
+        <v>-0.2185</v>
       </c>
       <c r="M7" s="0">
-        <v>-10</v>
+        <v>-5</v>
       </c>
       <c r="N7" s="0">
-        <v>-0.042900000000000001</v>
+        <v>-0.15840000000000001</v>
       </c>
       <c r="O7" s="0">
-        <v>-10</v>
+        <v>-5</v>
       </c>
       <c r="P7" s="0">
-        <v>-0.096699999999999994</v>
+        <v>-0.10589999999999999</v>
       </c>
       <c r="Q7" s="0">
-        <v>-10</v>
+        <v>-5</v>
       </c>
       <c r="R7" s="0">
-        <v>-0.14169999999999999</v>
+        <v>-0.096299999999999997</v>
       </c>
       <c r="S7" s="0">
-        <v>-10</v>
+        <v>-5</v>
       </c>
       <c r="T7" s="0">
-        <v>-0.1709</v>
+        <v>-0.083500000000000005</v>
       </c>
       <c r="U7" s="0">
-        <v>-9</v>
+        <v>-5</v>
       </c>
       <c r="V7" s="0">
-        <v>-0.185</v>
+        <v>-0.074099999999999999</v>
       </c>
       <c r="W7" s="0">
-        <v>-9</v>
+        <v>-5</v>
       </c>
       <c r="X7" s="0">
-        <v>-0.21429999999999999</v>
+        <v>-0.082100000000000006</v>
       </c>
       <c r="Y7" s="0">
-        <v>-10</v>
+        <v>-5</v>
       </c>
       <c r="Z7" s="0">
-        <v>-0.26000000000000001</v>
+        <v>-0.082699999999999996</v>
       </c>
       <c r="AA7" s="0">
-        <v>-10</v>
+        <v>-5</v>
       </c>
       <c r="AB7" s="0">
-        <v>-0.30649999999999999</v>
+        <v>-0.1028</v>
       </c>
       <c r="AC7" s="0">
-        <v>-9</v>
+        <v>-4</v>
       </c>
       <c r="AD7" s="0">
-        <v>-0.33829999999999999</v>
+        <v>-0.0126</v>
       </c>
       <c r="AE7" s="0">
-        <v>-10</v>
+        <v>-5</v>
       </c>
       <c r="AF7" s="0">
-        <v>-0.32140000000000002</v>
+        <v>-0.15140000000000001</v>
       </c>
       <c r="AG7" s="0">
-        <v>-10</v>
+        <v>-5</v>
       </c>
       <c r="AH7" s="0">
-        <v>-0.31830000000000003</v>
+        <v>-0.19639999999999999</v>
       </c>
       <c r="AI7" s="0">
-        <v>-10</v>
+        <v>-5</v>
       </c>
       <c r="AJ7" s="0">
-        <v>-0.255</v>
+        <v>-0.28810000000000002</v>
       </c>
       <c r="AK7" s="0">
-        <v>-10</v>
+        <v>-5</v>
       </c>
       <c r="AL7" s="0">
-        <v>-0.33639999999999998</v>
+        <v>-0.42799999999999999</v>
       </c>
       <c r="AM7" s="0">
-        <v>-10</v>
+        <v>-5</v>
       </c>
       <c r="AN7" s="0">
-        <v>-0.22919999999999999</v>
+        <v>-0.1129</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-9</v>
+        <v>-4</v>
       </c>
       <c r="B8" s="0">
-        <v>-0.26300000000000001</v>
+        <v>-0.4995</v>
       </c>
       <c r="C8" s="0">
-        <v>-9</v>
+        <v>-4</v>
       </c>
       <c r="D8" s="0">
-        <v>-0.091399999999999995</v>
+        <v>-0.39939999999999998</v>
       </c>
       <c r="E8" s="0">
-        <v>-9</v>
+        <v>-4</v>
       </c>
       <c r="F8" s="0">
-        <v>-0.011299999999999999</v>
+        <v>-0.39960000000000001</v>
       </c>
       <c r="G8" s="0">
-        <v>-9</v>
+        <v>-4</v>
       </c>
       <c r="H8" s="0">
-        <v>0.021100000000000001</v>
+        <v>-0.1999</v>
       </c>
       <c r="I8" s="0">
-        <v>-9</v>
+        <v>-4</v>
       </c>
       <c r="J8" s="0">
-        <v>-0.018499999999999999</v>
+        <v>-0.17269999999999999</v>
       </c>
       <c r="K8" s="0">
-        <v>-9</v>
+        <v>-4</v>
       </c>
       <c r="L8" s="0">
-        <v>-0.0121</v>
+        <v>-0.14280000000000001</v>
       </c>
       <c r="M8" s="0">
-        <v>-9</v>
+        <v>-4</v>
       </c>
       <c r="N8" s="0">
-        <v>-0.058000000000000003</v>
+        <v>-0.069599999999999995</v>
       </c>
       <c r="O8" s="0">
-        <v>-9</v>
+        <v>-4</v>
       </c>
       <c r="P8" s="0">
-        <v>-0.095200000000000007</v>
+        <v>-0.039399999999999998</v>
       </c>
       <c r="Q8" s="0">
-        <v>-9</v>
+        <v>-4</v>
       </c>
       <c r="R8" s="0">
-        <v>-0.1231</v>
+        <v>0.0061999999999999998</v>
       </c>
       <c r="S8" s="0">
-        <v>-9</v>
+        <v>-4</v>
       </c>
       <c r="T8" s="0">
-        <v>-0.1517</v>
+        <v>0.0152</v>
       </c>
       <c r="U8" s="0">
-        <v>-8</v>
+        <v>-4</v>
       </c>
       <c r="V8" s="0">
-        <v>-0.3029</v>
+        <v>0.035499999999999997</v>
       </c>
       <c r="W8" s="0">
-        <v>-8</v>
+        <v>-4</v>
       </c>
       <c r="X8" s="0">
-        <v>-0.3266</v>
+        <v>0.026100000000000002</v>
       </c>
       <c r="Y8" s="0">
-        <v>-9</v>
+        <v>-4</v>
       </c>
       <c r="Z8" s="0">
-        <v>-0.23769999999999999</v>
+        <v>0.0184</v>
       </c>
       <c r="AA8" s="0">
-        <v>-9</v>
+        <v>-4</v>
       </c>
       <c r="AB8" s="0">
-        <v>-0.27489999999999998</v>
+        <v>0.0103</v>
       </c>
       <c r="AC8" s="0">
-        <v>-8</v>
+        <v>-3</v>
       </c>
       <c r="AD8" s="0">
-        <v>-0.35880000000000001</v>
+        <v>0.097100000000000006</v>
       </c>
       <c r="AE8" s="0">
-        <v>-9</v>
+        <v>-4</v>
       </c>
       <c r="AF8" s="0">
-        <v>-0.36020000000000002</v>
+        <v>-0.041099999999999998</v>
       </c>
       <c r="AG8" s="0">
-        <v>-9</v>
+        <v>-4</v>
       </c>
       <c r="AH8" s="0">
-        <v>-0.37569999999999998</v>
+        <v>-0.080000000000000002</v>
       </c>
       <c r="AI8" s="0">
-        <v>-9</v>
+        <v>-4</v>
       </c>
       <c r="AJ8" s="0">
-        <v>-0.28899999999999998</v>
+        <v>-0.16289999999999999</v>
       </c>
       <c r="AK8" s="0">
-        <v>-9</v>
+        <v>-4</v>
       </c>
       <c r="AL8" s="0">
-        <v>-0.34620000000000001</v>
+        <v>-0.37</v>
       </c>
       <c r="AM8" s="0">
-        <v>-9</v>
+        <v>-4</v>
       </c>
       <c r="AN8" s="0">
-        <v>-0.2094</v>
+        <v>-0.13189999999999999</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-8</v>
+        <v>-3</v>
       </c>
       <c r="B9" s="0">
-        <v>-0.34329999999999999</v>
+        <v>-0.5363</v>
       </c>
       <c r="C9" s="0">
-        <v>-8</v>
+        <v>-3</v>
       </c>
       <c r="D9" s="0">
-        <v>-0.12670000000000001</v>
+        <v>-0.40670000000000001</v>
       </c>
       <c r="E9" s="0">
-        <v>-8</v>
+        <v>-3</v>
       </c>
       <c r="F9" s="0">
-        <v>-0.042000000000000003</v>
+        <v>-0.36780000000000002</v>
       </c>
       <c r="G9" s="0">
-        <v>-8</v>
+        <v>-3</v>
       </c>
       <c r="H9" s="0">
-        <v>-0.038800000000000001</v>
+        <v>-0.1237</v>
       </c>
       <c r="I9" s="0">
-        <v>-8</v>
+        <v>-3</v>
       </c>
       <c r="J9" s="0">
-        <v>-0.044400000000000002</v>
+        <v>-0.093399999999999997</v>
       </c>
       <c r="K9" s="0">
-        <v>-8</v>
+        <v>-3</v>
       </c>
       <c r="L9" s="0">
-        <v>-0.0487</v>
+        <v>-0.059999999999999998</v>
       </c>
       <c r="M9" s="0">
-        <v>-8</v>
+        <v>-3</v>
       </c>
       <c r="N9" s="0">
-        <v>-0.2029</v>
+        <v>0.023699999999999999</v>
       </c>
       <c r="O9" s="0">
-        <v>-8</v>
+        <v>-3</v>
       </c>
       <c r="P9" s="0">
-        <v>-0.22370000000000001</v>
+        <v>0.053999999999999999</v>
       </c>
       <c r="Q9" s="0">
-        <v>-8</v>
+        <v>-3</v>
       </c>
       <c r="R9" s="0">
-        <v>-0.23730000000000001</v>
+        <v>0.1118</v>
       </c>
       <c r="S9" s="0">
-        <v>-8</v>
+        <v>-3</v>
       </c>
       <c r="T9" s="0">
-        <v>-0.28410000000000002</v>
+        <v>0.11990000000000001</v>
       </c>
       <c r="U9" s="0">
-        <v>-7</v>
+        <v>-3</v>
       </c>
       <c r="V9" s="0">
-        <v>-0.26250000000000001</v>
+        <v>0.12720000000000001</v>
       </c>
       <c r="W9" s="0">
-        <v>-7</v>
+        <v>-3</v>
       </c>
       <c r="X9" s="0">
-        <v>-0.27029999999999998</v>
+        <v>0.13750000000000001</v>
       </c>
       <c r="Y9" s="0">
-        <v>-8</v>
+        <v>-3</v>
       </c>
       <c r="Z9" s="0">
-        <v>-0.34710000000000002</v>
+        <v>0.1285</v>
       </c>
       <c r="AA9" s="0">
-        <v>-8</v>
+        <v>-3</v>
       </c>
       <c r="AB9" s="0">
-        <v>-0.32740000000000002</v>
+        <v>0.1128</v>
       </c>
       <c r="AC9" s="0">
-        <v>-7</v>
+        <v>-2</v>
       </c>
       <c r="AD9" s="0">
-        <v>-0.32390000000000002</v>
+        <v>0.2054</v>
       </c>
       <c r="AE9" s="0">
-        <v>-8</v>
+        <v>-2</v>
       </c>
       <c r="AF9" s="0">
-        <v>-0.3624</v>
+        <v>0.18179999999999999</v>
       </c>
       <c r="AG9" s="0">
-        <v>-8</v>
+        <v>-3</v>
       </c>
       <c r="AH9" s="0">
-        <v>-0.41289999999999999</v>
+        <v>0.0402</v>
       </c>
       <c r="AI9" s="0">
-        <v>-8</v>
+        <v>-3</v>
       </c>
       <c r="AJ9" s="0">
-        <v>-0.33500000000000002</v>
+        <v>-0.033099999999999998</v>
       </c>
       <c r="AK9" s="0">
-        <v>-8</v>
+        <v>-3</v>
       </c>
       <c r="AL9" s="0">
-        <v>-0.38850000000000001</v>
+        <v>-0.28010000000000002</v>
       </c>
       <c r="AM9" s="0">
-        <v>-8</v>
+        <v>-3</v>
       </c>
       <c r="AN9" s="0">
-        <v>-0.19439999999999999</v>
+        <v>-0.14960000000000001</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-7</v>
+        <v>-2</v>
       </c>
       <c r="B10" s="0">
-        <v>-0.37819999999999998</v>
+        <v>-0.5383</v>
       </c>
       <c r="C10" s="0">
-        <v>-7</v>
+        <v>-2</v>
       </c>
       <c r="D10" s="0">
-        <v>-0.16209999999999999</v>
+        <v>-0.3715</v>
       </c>
       <c r="E10" s="0">
-        <v>-7</v>
+        <v>-2</v>
       </c>
       <c r="F10" s="0">
-        <v>-0.1159</v>
+        <v>-0.31569999999999998</v>
       </c>
       <c r="G10" s="0">
-        <v>-7</v>
+        <v>-2</v>
       </c>
       <c r="H10" s="0">
-        <v>-0.13980000000000001</v>
+        <v>-0.060600000000000001</v>
       </c>
       <c r="I10" s="0">
-        <v>-7</v>
+        <v>-2</v>
       </c>
       <c r="J10" s="0">
-        <v>-0.22850000000000001</v>
+        <v>-0.00080000000000000004</v>
       </c>
       <c r="K10" s="0">
-        <v>-7</v>
+        <v>-2</v>
       </c>
       <c r="L10" s="0">
-        <v>-0.21249999999999999</v>
+        <v>0.030499999999999999</v>
       </c>
       <c r="M10" s="0">
-        <v>-7</v>
+        <v>-2</v>
       </c>
       <c r="N10" s="0">
-        <v>-0.26040000000000002</v>
+        <v>0.089200000000000002</v>
       </c>
       <c r="O10" s="0">
-        <v>-7</v>
+        <v>-2</v>
       </c>
       <c r="P10" s="0">
-        <v>-0.25419999999999998</v>
+        <v>0.15310000000000001</v>
       </c>
       <c r="Q10" s="0">
-        <v>-7</v>
+        <v>-2</v>
       </c>
       <c r="R10" s="0">
-        <v>-0.2475</v>
+        <v>0.1963</v>
       </c>
       <c r="S10" s="0">
-        <v>-7</v>
+        <v>-2</v>
       </c>
       <c r="T10" s="0">
-        <v>-0.25690000000000002</v>
+        <v>0.23130000000000001</v>
       </c>
       <c r="U10" s="0">
-        <v>-6</v>
+        <v>-2</v>
       </c>
       <c r="V10" s="0">
-        <v>-0.17910000000000001</v>
+        <v>0.2366</v>
       </c>
       <c r="W10" s="0">
-        <v>-6</v>
+        <v>-2</v>
       </c>
       <c r="X10" s="0">
-        <v>-0.18140000000000001</v>
+        <v>0.2356</v>
       </c>
       <c r="Y10" s="0">
-        <v>-7</v>
+        <v>-2</v>
       </c>
       <c r="Z10" s="0">
-        <v>-0.28199999999999997</v>
+        <v>0.2326</v>
       </c>
       <c r="AA10" s="0">
-        <v>-7</v>
+        <v>-2</v>
       </c>
       <c r="AB10" s="0">
-        <v>-0.30020000000000002</v>
+        <v>0.2251</v>
       </c>
       <c r="AC10" s="0">
-        <v>-6</v>
+        <v>-1</v>
       </c>
       <c r="AD10" s="0">
-        <v>-0.23330000000000001</v>
+        <v>0.31469999999999998</v>
       </c>
       <c r="AE10" s="0">
-        <v>-7</v>
+        <v>-1</v>
       </c>
       <c r="AF10" s="0">
-        <v>-0.3468</v>
+        <v>0.2928</v>
       </c>
       <c r="AG10" s="0">
-        <v>-7</v>
+        <v>-2</v>
       </c>
       <c r="AH10" s="0">
-        <v>-0.39119999999999999</v>
+        <v>0.1512</v>
       </c>
       <c r="AI10" s="0">
-        <v>-7</v>
+        <v>-2</v>
       </c>
       <c r="AJ10" s="0">
-        <v>-0.35199999999999998</v>
+        <v>0.089300000000000004</v>
       </c>
       <c r="AK10" s="0">
-        <v>-7</v>
+        <v>-2</v>
       </c>
       <c r="AL10" s="0">
-        <v>-0.41660000000000003</v>
+        <v>-0.1852</v>
       </c>
       <c r="AM10" s="0">
-        <v>-7</v>
+        <v>-2</v>
       </c>
       <c r="AN10" s="0">
-        <v>-0.18509999999999999</v>
+        <v>-0.12620000000000001</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-6</v>
+        <v>-1</v>
       </c>
       <c r="B11" s="0">
-        <v>-0.41410000000000002</v>
+        <v>-0.50409999999999999</v>
       </c>
       <c r="C11" s="0">
-        <v>-6</v>
+        <v>-1</v>
       </c>
       <c r="D11" s="0">
-        <v>-0.2387</v>
+        <v>-0.32619999999999999</v>
       </c>
       <c r="E11" s="0">
-        <v>-6</v>
+        <v>-1</v>
       </c>
       <c r="F11" s="0">
-        <v>-0.2712</v>
+        <v>-0.2581</v>
       </c>
       <c r="G11" s="0">
-        <v>-6</v>
+        <v>-1</v>
       </c>
       <c r="H11" s="0">
-        <v>-0.25940000000000002</v>
+        <v>0.035400000000000001</v>
       </c>
       <c r="I11" s="0">
-        <v>-6</v>
+        <v>-1</v>
       </c>
       <c r="J11" s="0">
-        <v>-0.27360000000000001</v>
+        <v>0.072300000000000003</v>
       </c>
       <c r="K11" s="0">
-        <v>-6</v>
+        <v>-1</v>
       </c>
       <c r="L11" s="0">
-        <v>-0.27310000000000001</v>
+        <v>0.122</v>
       </c>
       <c r="M11" s="0">
-        <v>-6</v>
+        <v>-1</v>
       </c>
       <c r="N11" s="0">
-        <v>-0.2326</v>
+        <v>0.2009</v>
       </c>
       <c r="O11" s="0">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="P11" s="0">
-        <v>-0.19819999999999999</v>
+        <v>0.36159999999999998</v>
       </c>
       <c r="Q11" s="0">
-        <v>-6</v>
+        <v>-1</v>
       </c>
       <c r="R11" s="0">
-        <v>-0.1908</v>
+        <v>0.3165</v>
       </c>
       <c r="S11" s="0">
-        <v>-6</v>
+        <v>-1</v>
       </c>
       <c r="T11" s="0">
-        <v>-0.17150000000000001</v>
+        <v>0.33529999999999999</v>
       </c>
       <c r="U11" s="0">
-        <v>-5</v>
+        <v>-1</v>
       </c>
       <c r="V11" s="0">
-        <v>-0.074099999999999999</v>
+        <v>0.34449999999999997</v>
       </c>
       <c r="W11" s="0">
-        <v>-5</v>
+        <v>-1</v>
       </c>
       <c r="X11" s="0">
-        <v>-0.082100000000000006</v>
+        <v>0.34460000000000002</v>
       </c>
       <c r="Y11" s="0">
-        <v>-6</v>
+        <v>-1</v>
       </c>
       <c r="Z11" s="0">
-        <v>-0.1898</v>
+        <v>0.3412</v>
       </c>
       <c r="AA11" s="0">
-        <v>-6</v>
+        <v>-1</v>
       </c>
       <c r="AB11" s="0">
-        <v>-0.2059</v>
+        <v>0.33450000000000002</v>
       </c>
       <c r="AC11" s="0">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="AD11" s="0">
-        <v>-0.1217</v>
+        <v>0.46810000000000002</v>
       </c>
       <c r="AE11" s="0">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="AF11" s="0">
-        <v>-0.2666</v>
+        <v>0.4662</v>
       </c>
       <c r="AG11" s="0">
-        <v>-6</v>
+        <v>-1</v>
       </c>
       <c r="AH11" s="0">
-        <v>-0.31030000000000002</v>
+        <v>0.26090000000000002</v>
       </c>
       <c r="AI11" s="0">
-        <v>-6</v>
+        <v>-1</v>
       </c>
       <c r="AJ11" s="0">
-        <v>-0.34520000000000001</v>
+        <v>0.1953</v>
       </c>
       <c r="AK11" s="0">
-        <v>-6</v>
+        <v>-1</v>
       </c>
       <c r="AL11" s="0">
-        <v>-0.43969999999999998</v>
+        <v>-0.064699999999999994</v>
       </c>
       <c r="AM11" s="0">
-        <v>-6</v>
+        <v>-1</v>
       </c>
       <c r="AN11" s="0">
-        <v>-0.1822</v>
+        <v>-0.073400000000000007</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="B12" s="0">
-        <v>-0.45829999999999999</v>
+        <v>-0.44209999999999999</v>
       </c>
       <c r="C12" s="0">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="D12" s="0">
-        <v>-0.35060000000000002</v>
+        <v>-0.24790000000000001</v>
       </c>
       <c r="E12" s="0">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="F12" s="0">
-        <v>-0.39340000000000003</v>
+        <v>-0.17230000000000001</v>
       </c>
       <c r="G12" s="0">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="H12" s="0">
-        <v>-0.25669999999999998</v>
+        <v>0.114</v>
       </c>
       <c r="I12" s="0">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="J12" s="0">
-        <v>-0.23999999999999999</v>
+        <v>0.182</v>
       </c>
       <c r="K12" s="0">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="L12" s="0">
-        <v>-0.21840000000000001</v>
+        <v>0.21820000000000001</v>
       </c>
       <c r="M12" s="0">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="N12" s="0">
-        <v>-0.15840000000000001</v>
+        <v>0.2913</v>
       </c>
       <c r="O12" s="0">
-        <v>-5</v>
+        <v>1</v>
       </c>
       <c r="P12" s="0">
-        <v>-0.10589999999999999</v>
+        <v>0.5081</v>
       </c>
       <c r="Q12" s="0">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="R12" s="0">
-        <v>-0.096299999999999997</v>
+        <v>0.40760000000000002</v>
       </c>
       <c r="S12" s="0">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="T12" s="0">
-        <v>-0.083500000000000005</v>
+        <v>0.4325</v>
       </c>
       <c r="U12" s="0">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="V12" s="0">
-        <v>0.035499999999999997</v>
+        <v>0.4441</v>
       </c>
       <c r="W12" s="0">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="X12" s="0">
-        <v>0.026100000000000002</v>
+        <v>0.45069999999999999</v>
       </c>
       <c r="Y12" s="0">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="0">
-        <v>-0.082799999999999999</v>
+        <v>0.45569999999999999</v>
       </c>
       <c r="AA12" s="0">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="AB12" s="0">
-        <v>-0.1028</v>
+        <v>0.46439999999999998</v>
       </c>
       <c r="AC12" s="0">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="AD12" s="0">
-        <v>-0.0126</v>
+        <v>0.58199999999999996</v>
       </c>
       <c r="AE12" s="0">
-        <v>-5</v>
+        <v>1</v>
       </c>
       <c r="AF12" s="0">
-        <v>-0.15140000000000001</v>
+        <v>0.56020000000000003</v>
       </c>
       <c r="AG12" s="0">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="AH12" s="0">
-        <v>-0.19639999999999999</v>
+        <v>0.43219999999999997</v>
       </c>
       <c r="AI12" s="0">
-        <v>-5</v>
+        <v>1</v>
       </c>
       <c r="AJ12" s="0">
-        <v>-0.26650000000000001</v>
+        <v>0.4698</v>
       </c>
       <c r="AK12" s="0">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="AL12" s="0">
-        <v>-0.42799999999999999</v>
+        <v>0.081000000000000003</v>
       </c>
       <c r="AM12" s="0">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="AN12" s="0">
-        <v>-0.18379999999999999</v>
+        <v>-0.012</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="B13" s="0">
-        <v>-0.49930000000000002</v>
+        <v>-0.3523</v>
       </c>
       <c r="C13" s="0">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="D13" s="0">
-        <v>-0.39989999999999998</v>
+        <v>-0.15329999999999999</v>
       </c>
       <c r="E13" s="0">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="F13" s="0">
-        <v>-0.3987</v>
+        <v>-0.093700000000000006</v>
       </c>
       <c r="G13" s="0">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="H13" s="0">
-        <v>-0.19989999999999999</v>
+        <v>0.21079999999999999</v>
       </c>
       <c r="I13" s="0">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="J13" s="0">
-        <v>-0.17269999999999999</v>
+        <v>0.2465</v>
       </c>
       <c r="K13" s="0">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="L13" s="0">
-        <v>-0.14280000000000001</v>
+        <v>0.29430000000000001</v>
       </c>
       <c r="M13" s="0">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="N13" s="0">
-        <v>-0.069599999999999995</v>
+        <v>0.376</v>
       </c>
       <c r="O13" s="0">
-        <v>-4</v>
+        <v>2</v>
       </c>
       <c r="P13" s="0">
-        <v>-0.039399999999999998</v>
+        <v>0.57079999999999998</v>
       </c>
       <c r="Q13" s="0">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="R13" s="0">
-        <v>0.0061999999999999998</v>
+        <v>0.57020000000000004</v>
       </c>
       <c r="S13" s="0">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="T13" s="0">
-        <v>0.0152</v>
+        <v>0.6018</v>
       </c>
       <c r="U13" s="0">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="V13" s="0">
-        <v>0.12720000000000001</v>
+        <v>0.61729999999999996</v>
       </c>
       <c r="W13" s="0">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="X13" s="0">
-        <v>0.1376</v>
+        <v>0.61570000000000003</v>
       </c>
       <c r="Y13" s="0">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="Z13" s="0">
-        <v>0.0183</v>
+        <v>0.61040000000000005</v>
       </c>
       <c r="AA13" s="0">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="AB13" s="0">
-        <v>0.0103</v>
+        <v>0.60050000000000003</v>
       </c>
       <c r="AC13" s="0">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="AD13" s="0">
-        <v>0.097100000000000006</v>
+        <v>0.6744</v>
       </c>
       <c r="AE13" s="0">
-        <v>-4</v>
+        <v>2</v>
       </c>
       <c r="AF13" s="0">
-        <v>-0.041099999999999998</v>
+        <v>0.65500000000000003</v>
       </c>
       <c r="AG13" s="0">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="AH13" s="0">
-        <v>-0.080000000000000002</v>
+        <v>0.52959999999999996</v>
       </c>
       <c r="AI13" s="0">
-        <v>-4</v>
+        <v>2</v>
       </c>
       <c r="AJ13" s="0">
-        <v>-0.15740000000000001</v>
+        <v>0.5776</v>
       </c>
       <c r="AK13" s="0">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="AL13" s="0">
-        <v>-0.37</v>
+        <v>0.22040000000000001</v>
       </c>
       <c r="AM13" s="0">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="AN13" s="0">
-        <v>-0.17979999999999999</v>
+        <v>0.051200000000000002</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="B14" s="0">
-        <v>-0.53600000000000003</v>
+        <v>-0.27150000000000002</v>
       </c>
       <c r="C14" s="0">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="D14" s="0">
-        <v>-0.40670000000000001</v>
+        <v>-0.085199999999999998</v>
       </c>
       <c r="E14" s="0">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="F14" s="0">
-        <v>-0.3679</v>
+        <v>0.0117</v>
       </c>
       <c r="G14" s="0">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="H14" s="0">
-        <v>-0.1237</v>
+        <v>0.2666</v>
       </c>
       <c r="I14" s="0">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="J14" s="0">
-        <v>-0.093399999999999997</v>
+        <v>0.30769999999999997</v>
       </c>
       <c r="K14" s="0">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="L14" s="0">
-        <v>-0.059999999999999998</v>
+        <v>0.38679999999999998</v>
       </c>
       <c r="M14" s="0">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="N14" s="0">
-        <v>0.023699999999999999</v>
+        <v>0.50490000000000002</v>
       </c>
       <c r="O14" s="0">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="P14" s="0">
-        <v>0.053999999999999999</v>
+        <v>0.65010000000000001</v>
       </c>
       <c r="Q14" s="0">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="R14" s="0">
-        <v>0.11169999999999999</v>
+        <v>0.64080000000000004</v>
       </c>
       <c r="S14" s="0">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="T14" s="0">
-        <v>0.11990000000000001</v>
+        <v>0.67900000000000005</v>
       </c>
       <c r="U14" s="0">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="V14" s="0">
-        <v>0.2366</v>
+        <v>0.69879999999999998</v>
       </c>
       <c r="W14" s="0">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="X14" s="0">
-        <v>0.23569999999999999</v>
+        <v>0.69799999999999995</v>
       </c>
       <c r="Y14" s="0">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="Z14" s="0">
-        <v>0.1285</v>
+        <v>0.69610000000000005</v>
       </c>
       <c r="AA14" s="0">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="AB14" s="0">
-        <v>0.1128</v>
+        <v>0.68730000000000002</v>
       </c>
       <c r="AC14" s="0">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="AD14" s="0">
-        <v>0.2054</v>
+        <v>0.76790000000000003</v>
       </c>
       <c r="AE14" s="0">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="AF14" s="0">
-        <v>0.18179999999999999</v>
+        <v>0.75070000000000003</v>
       </c>
       <c r="AG14" s="0">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="AH14" s="0">
-        <v>0.0402</v>
+        <v>0.63090000000000002</v>
       </c>
       <c r="AI14" s="0">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="AJ14" s="0">
-        <v>-0.030300000000000001</v>
+        <v>0.68069999999999997</v>
       </c>
       <c r="AK14" s="0">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="AL14" s="0">
-        <v>-0.28010000000000002</v>
+        <v>0.3543</v>
       </c>
       <c r="AM14" s="0">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="AN14" s="0">
-        <v>-0.157</v>
+        <v>0.1135</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="B15" s="0">
-        <v>-0.53790000000000004</v>
+        <v>-0.086900000000000005</v>
       </c>
       <c r="C15" s="0">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="D15" s="0">
-        <v>-0.37130000000000002</v>
+        <v>-0.0027000000000000001</v>
       </c>
       <c r="E15" s="0">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="F15" s="0">
-        <v>-0.31559999999999999</v>
+        <v>0.068599999999999994</v>
       </c>
       <c r="G15" s="0">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="H15" s="0">
-        <v>-0.060600000000000001</v>
+        <v>0.32340000000000002</v>
       </c>
       <c r="I15" s="0">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="J15" s="0">
-        <v>-0.00069999999999999999</v>
+        <v>0.40260000000000001</v>
       </c>
       <c r="K15" s="0">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="L15" s="0">
-        <v>0.030499999999999999</v>
+        <v>0.45100000000000001</v>
       </c>
       <c r="M15" s="0">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="N15" s="0">
-        <v>0.089200000000000002</v>
+        <v>0.57230000000000003</v>
       </c>
       <c r="O15" s="0">
-        <v>-2</v>
+        <v>4</v>
       </c>
       <c r="P15" s="0">
-        <v>0.15310000000000001</v>
+        <v>0.73480000000000001</v>
       </c>
       <c r="Q15" s="0">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="R15" s="0">
-        <v>0.1963</v>
+        <v>0.71950000000000003</v>
       </c>
       <c r="S15" s="0">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="T15" s="0">
-        <v>0.23130000000000001</v>
+        <v>0.76459999999999995</v>
       </c>
       <c r="U15" s="0">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="V15" s="0">
-        <v>0.34449999999999997</v>
+        <v>0.77890000000000004</v>
       </c>
       <c r="W15" s="0">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X15" s="0">
-        <v>0.34470000000000001</v>
+        <v>0.78449999999999998</v>
       </c>
       <c r="Y15" s="0">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="Z15" s="0">
-        <v>0.2326</v>
+        <v>0.78669999999999996</v>
       </c>
       <c r="AA15" s="0">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="AB15" s="0">
-        <v>0.22509999999999999</v>
+        <v>0.77929999999999999</v>
       </c>
       <c r="AC15" s="0">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AD15" s="0">
-        <v>0.31469999999999998</v>
+        <v>0.85880000000000001</v>
       </c>
       <c r="AE15" s="0">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AF15" s="0">
-        <v>0.2928</v>
+        <v>0.84499999999999997</v>
       </c>
       <c r="AG15" s="0">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="AH15" s="0">
-        <v>0.1512</v>
+        <v>0.72960000000000003</v>
       </c>
       <c r="AI15" s="0">
-        <v>-2</v>
+        <v>4</v>
       </c>
       <c r="AJ15" s="0">
-        <v>0.080799999999999997</v>
+        <v>0.78490000000000004</v>
       </c>
       <c r="AK15" s="0">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="AL15" s="0">
-        <v>-0.1852</v>
+        <v>0.4708</v>
       </c>
       <c r="AM15" s="0">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="AN15" s="0">
-        <v>-0.11459999999999999</v>
+        <v>0.17369999999999999</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="B16" s="0">
-        <v>-0.504</v>
+        <v>-0.028500000000000001</v>
       </c>
       <c r="C16" s="0">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="D16" s="0">
-        <v>-0.32590000000000002</v>
+        <v>0.1293</v>
       </c>
       <c r="E16" s="0">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="F16" s="0">
-        <v>-0.25800000000000001</v>
+        <v>0.24679999999999999</v>
       </c>
       <c r="G16" s="0">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="H16" s="0">
-        <v>0.035400000000000001</v>
+        <v>0.39639999999999998</v>
       </c>
       <c r="I16" s="0">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="J16" s="0">
-        <v>0.072300000000000003</v>
+        <v>0.44779999999999998</v>
       </c>
       <c r="K16" s="0">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="L16" s="0">
-        <v>0.1221</v>
+        <v>0.51100000000000001</v>
       </c>
       <c r="M16" s="0">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="N16" s="0">
-        <v>0.2009</v>
+        <v>0.64200000000000002</v>
       </c>
       <c r="O16" s="0">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P16" s="0">
-        <v>0.36159999999999998</v>
+        <v>0.81840000000000002</v>
       </c>
       <c r="Q16" s="0">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="R16" s="0">
-        <v>0.3165</v>
+        <v>0.80379999999999996</v>
       </c>
       <c r="S16" s="0">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="T16" s="0">
-        <v>0.33529999999999999</v>
+        <v>0.84360000000000002</v>
       </c>
       <c r="U16" s="0">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V16" s="0">
-        <v>0.44419999999999998</v>
+        <v>0.86250000000000004</v>
       </c>
       <c r="W16" s="0">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X16" s="0">
-        <v>0.45069999999999999</v>
+        <v>0.86990000000000001</v>
       </c>
       <c r="Y16" s="0">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z16" s="0">
-        <v>0.34110000000000001</v>
+        <v>0.87380000000000002</v>
       </c>
       <c r="AA16" s="0">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AB16" s="0">
-        <v>0.33450000000000002</v>
+        <v>0.86780000000000002</v>
       </c>
       <c r="AC16" s="0">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AD16" s="0">
-        <v>0.46810000000000002</v>
+        <v>0.94710000000000005</v>
       </c>
       <c r="AE16" s="0">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AF16" s="0">
-        <v>0.4662</v>
+        <v>0.93569999999999998</v>
       </c>
       <c r="AG16" s="0">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AH16" s="0">
-        <v>0.26090000000000002</v>
+        <v>0.82399999999999996</v>
       </c>
       <c r="AI16" s="0">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AJ16" s="0">
-        <v>0.18099999999999999</v>
+        <v>0.88170000000000004</v>
       </c>
       <c r="AK16" s="0">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AL16" s="0">
-        <v>-0.064699999999999994</v>
+        <v>0.57289999999999996</v>
       </c>
       <c r="AM16" s="0">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AN16" s="0">
-        <v>-0.060900000000000003</v>
+        <v>0.2311</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B17" s="0">
-        <v>-0.442</v>
+        <v>0.028400000000000002</v>
       </c>
       <c r="C17" s="0">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D17" s="0">
-        <v>-0.24829999999999999</v>
+        <v>0.17169999999999999</v>
       </c>
       <c r="E17" s="0">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F17" s="0">
-        <v>-0.1719</v>
+        <v>0.26040000000000002</v>
       </c>
       <c r="G17" s="0">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H17" s="0">
-        <v>0.114</v>
+        <v>0.4214</v>
       </c>
       <c r="I17" s="0">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J17" s="0">
-        <v>0.182</v>
+        <v>0.51119999999999999</v>
       </c>
       <c r="K17" s="0">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L17" s="0">
-        <v>0.21820000000000001</v>
+        <v>0.58420000000000005</v>
       </c>
       <c r="M17" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N17" s="0">
-        <v>0.31850000000000001</v>
+        <v>0.79810000000000003</v>
       </c>
       <c r="O17" s="0">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="P17" s="0">
-        <v>0.50800000000000001</v>
+        <v>0.90969999999999995</v>
       </c>
       <c r="Q17" s="0">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R17" s="0">
-        <v>0.40760000000000002</v>
+        <v>0.89080000000000004</v>
       </c>
       <c r="S17" s="0">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T17" s="0">
-        <v>0.4325</v>
+        <v>0.91890000000000005</v>
       </c>
       <c r="U17" s="0">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V17" s="0">
-        <v>0.61729999999999996</v>
+        <v>0.94130000000000003</v>
       </c>
       <c r="W17" s="0">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="X17" s="0">
-        <v>0.61560000000000004</v>
+        <v>0.95279999999999998</v>
       </c>
       <c r="Y17" s="0">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Z17" s="0">
-        <v>0.45569999999999999</v>
+        <v>0.95650000000000002</v>
       </c>
       <c r="AA17" s="0">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AB17" s="0">
-        <v>0.46439999999999998</v>
+        <v>0.9536</v>
       </c>
       <c r="AC17" s="0">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AD17" s="0">
-        <v>0.58209999999999995</v>
+        <v>1.034</v>
       </c>
       <c r="AE17" s="0">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AF17" s="0">
-        <v>0.56020000000000003</v>
+        <v>1.0253000000000001</v>
       </c>
       <c r="AG17" s="0">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AH17" s="0">
-        <v>0.43219999999999997</v>
+        <v>0.91920000000000002</v>
       </c>
       <c r="AI17" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AJ17" s="0">
-        <v>0.34710000000000002</v>
+        <v>0.97950000000000004</v>
       </c>
       <c r="AK17" s="0">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AL17" s="0">
-        <v>0.081000000000000003</v>
+        <v>0.65159999999999996</v>
       </c>
       <c r="AM17" s="0">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AN17" s="0">
-        <v>-0.0020999999999999999</v>
+        <v>0.2853</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B18" s="0">
-        <v>-0.35239999999999999</v>
+        <v>0.049000000000000002</v>
       </c>
       <c r="C18" s="0">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D18" s="0">
-        <v>-0.15359999999999999</v>
+        <v>0.2089</v>
       </c>
       <c r="E18" s="0">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F18" s="0">
-        <v>-0.094100000000000003</v>
+        <v>0.29420000000000002</v>
       </c>
       <c r="G18" s="0">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H18" s="0">
-        <v>0.21079999999999999</v>
+        <v>0.4572</v>
       </c>
       <c r="I18" s="0">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J18" s="0">
-        <v>0.2465</v>
+        <v>0.52270000000000005</v>
       </c>
       <c r="K18" s="0">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="L18" s="0">
-        <v>0.38690000000000002</v>
+        <v>0.63919999999999999</v>
       </c>
       <c r="M18" s="0">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="N18" s="0">
-        <v>0.376</v>
+        <v>0.81389999999999996</v>
       </c>
       <c r="O18" s="0">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="P18" s="0">
-        <v>0.57079999999999997</v>
+        <v>0.97319999999999995</v>
       </c>
       <c r="Q18" s="0">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R18" s="0">
-        <v>0.57020000000000004</v>
+        <v>0.97119999999999995</v>
       </c>
       <c r="S18" s="0">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T18" s="0">
-        <v>0.6018</v>
+        <v>0.99939999999999996</v>
       </c>
       <c r="U18" s="0">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="V18" s="0">
-        <v>0.69879999999999998</v>
+        <v>1.0174000000000001</v>
       </c>
       <c r="W18" s="0">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="X18" s="0">
-        <v>0.69799999999999995</v>
+        <v>1.0303</v>
       </c>
       <c r="Y18" s="0">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Z18" s="0">
-        <v>0.61040000000000005</v>
+        <v>1.0373000000000001</v>
       </c>
       <c r="AA18" s="0">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AB18" s="0">
-        <v>0.60050000000000003</v>
+        <v>1.0389999999999999</v>
       </c>
       <c r="AC18" s="0">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AD18" s="0">
-        <v>0.6744</v>
+        <v>1.1207</v>
       </c>
       <c r="AE18" s="0">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AF18" s="0">
-        <v>0.65500000000000003</v>
+        <v>1.1145</v>
       </c>
       <c r="AG18" s="0">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AH18" s="0">
-        <v>0.52959999999999996</v>
+        <v>1.0113000000000001</v>
       </c>
       <c r="AI18" s="0">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AJ18" s="0">
-        <v>0.44400000000000001</v>
+        <v>1.0690999999999999</v>
       </c>
       <c r="AK18" s="0">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AL18" s="0">
-        <v>0.22040000000000001</v>
+        <v>0.72870000000000001</v>
       </c>
       <c r="AM18" s="0">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AN18" s="0">
-        <v>0.058500000000000003</v>
+        <v>0.33639999999999998</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B19" s="0">
-        <v>-0.27160000000000001</v>
+        <v>0.065000000000000002</v>
       </c>
       <c r="C19" s="0">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D19" s="0">
-        <v>-0.085000000000000006</v>
+        <v>0.25340000000000001</v>
       </c>
       <c r="E19" s="0">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F19" s="0">
-        <v>0.011900000000000001</v>
+        <v>0.3443</v>
       </c>
       <c r="G19" s="0">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H19" s="0">
-        <v>0.2666</v>
+        <v>0.4884</v>
       </c>
       <c r="I19" s="0">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J19" s="0">
-        <v>0.30769999999999997</v>
+        <v>0.55320000000000003</v>
       </c>
       <c r="K19" s="0">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="L19" s="0">
-        <v>0.4511</v>
+        <v>0.65949999999999998</v>
       </c>
       <c r="M19" s="0">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="N19" s="0">
-        <v>0.50490000000000002</v>
+        <v>0.85870000000000002</v>
       </c>
       <c r="O19" s="0">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="P19" s="0">
-        <v>0.65010000000000001</v>
+        <v>1.0552999999999999</v>
       </c>
       <c r="Q19" s="0">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="R19" s="0">
-        <v>0.64080000000000004</v>
+        <v>1.0402</v>
       </c>
       <c r="S19" s="0">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="T19" s="0">
-        <v>0.67900000000000005</v>
+        <v>1.0751999999999999</v>
       </c>
       <c r="U19" s="0">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="V19" s="0">
-        <v>0.77890000000000004</v>
+        <v>1.0968</v>
       </c>
       <c r="W19" s="0">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="X19" s="0">
-        <v>0.78449999999999998</v>
+        <v>1.1103000000000001</v>
       </c>
       <c r="Y19" s="0">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="Z19" s="0">
-        <v>0.69610000000000005</v>
+        <v>1.1185</v>
       </c>
       <c r="AA19" s="0">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AB19" s="0">
-        <v>0.68730000000000002</v>
+        <v>1.1238999999999999</v>
       </c>
       <c r="AC19" s="0">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AD19" s="0">
-        <v>0.76790000000000003</v>
+        <v>1.2050000000000001</v>
       </c>
       <c r="AE19" s="0">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AF19" s="0">
-        <v>0.75070000000000003</v>
+        <v>1.1986000000000001</v>
       </c>
       <c r="AG19" s="0">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AH19" s="0">
-        <v>0.63090000000000002</v>
+        <v>1.1013</v>
       </c>
       <c r="AI19" s="0">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AJ19" s="0">
-        <v>0.54179999999999995</v>
+        <v>1.1494</v>
       </c>
       <c r="AK19" s="0">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AL19" s="0">
-        <v>0.3543</v>
+        <v>0.78059999999999996</v>
       </c>
       <c r="AM19" s="0">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AN19" s="0">
-        <v>0.1192</v>
+        <v>0.3846</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B20" s="0">
-        <v>-0.086999999999999994</v>
+        <v>0.12039999999999999</v>
       </c>
       <c r="C20" s="0">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D20" s="0">
-        <v>-0.0035999999999999999</v>
+        <v>0.28710000000000002</v>
       </c>
       <c r="E20" s="0">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F20" s="0">
-        <v>0.069099999999999995</v>
+        <v>0.36280000000000001</v>
       </c>
       <c r="G20" s="0">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H20" s="0">
-        <v>0.32340000000000002</v>
+        <v>0.51939999999999997</v>
       </c>
       <c r="I20" s="0">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J20" s="0">
-        <v>0.40260000000000001</v>
+        <v>0.57269999999999999</v>
       </c>
       <c r="K20" s="0">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="L20" s="0">
-        <v>0.51100000000000001</v>
+        <v>0.67100000000000004</v>
       </c>
       <c r="M20" s="0">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="N20" s="0">
-        <v>0.57230000000000003</v>
+        <v>0.81610000000000005</v>
       </c>
       <c r="O20" s="0">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="P20" s="0">
-        <v>0.73480000000000001</v>
+        <v>1.1202000000000001</v>
       </c>
       <c r="Q20" s="0">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="R20" s="0">
-        <v>0.71950000000000003</v>
+        <v>1.1265000000000001</v>
       </c>
       <c r="S20" s="0">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="T20" s="0">
-        <v>0.76459999999999995</v>
+        <v>1.1627000000000001</v>
       </c>
       <c r="U20" s="0">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="V20" s="0">
-        <v>0.86250000000000004</v>
+        <v>1.1802999999999999</v>
       </c>
       <c r="W20" s="0">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="X20" s="0">
-        <v>0.87</v>
+        <v>1.1941999999999999</v>
       </c>
       <c r="Y20" s="0">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="Z20" s="0">
-        <v>0.78659999999999997</v>
+        <v>1.2001999999999999</v>
       </c>
       <c r="AA20" s="0">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AB20" s="0">
-        <v>0.77929999999999999</v>
+        <v>1.2037</v>
       </c>
       <c r="AC20" s="0">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AD20" s="0">
-        <v>0.85880000000000001</v>
+        <v>1.2734000000000001</v>
       </c>
       <c r="AE20" s="0">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AF20" s="0">
-        <v>0.84499999999999997</v>
+        <v>1.2618</v>
       </c>
       <c r="AG20" s="0">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AH20" s="0">
-        <v>0.72960000000000003</v>
+        <v>1.1846000000000001</v>
       </c>
       <c r="AI20" s="0">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AJ20" s="0">
-        <v>0.64100000000000001</v>
+        <v>1.2110000000000001</v>
       </c>
       <c r="AK20" s="0">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AL20" s="0">
-        <v>0.4708</v>
+        <v>0.81950000000000001</v>
       </c>
       <c r="AM20" s="0">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AN20" s="0">
-        <v>0.17879999999999999</v>
+        <v>0.4304</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B21" s="0">
-        <v>-0.0286</v>
+        <v>0.18060000000000001</v>
       </c>
       <c r="C21" s="0">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D21" s="0">
-        <v>0.12939999999999999</v>
+        <v>0.32290000000000002</v>
       </c>
       <c r="E21" s="0">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F21" s="0">
-        <v>0.24690000000000001</v>
+        <v>0.3836</v>
       </c>
       <c r="G21" s="0">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H21" s="0">
-        <v>0.39629999999999999</v>
+        <v>0.57340000000000002</v>
       </c>
       <c r="I21" s="0">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J21" s="0">
-        <v>0.44779999999999998</v>
+        <v>0.59609999999999996</v>
       </c>
       <c r="K21" s="0">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L21" s="0">
-        <v>0.58430000000000004</v>
+        <v>0.68159999999999998</v>
       </c>
       <c r="M21" s="0">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="N21" s="0">
-        <v>0.64200000000000002</v>
+        <v>0.83530000000000004</v>
       </c>
       <c r="O21" s="0">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P21" s="0">
-        <v>0.81850000000000001</v>
+        <v>0.9516</v>
       </c>
       <c r="Q21" s="0">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="R21" s="0">
-        <v>0.80379999999999996</v>
+        <v>1.1903999999999999</v>
       </c>
       <c r="S21" s="0">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="T21" s="0">
-        <v>0.84360000000000002</v>
+        <v>1.2365999999999999</v>
       </c>
       <c r="U21" s="0">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="V21" s="0">
-        <v>0.94130000000000003</v>
+        <v>1.2632000000000001</v>
       </c>
       <c r="W21" s="0">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="X21" s="0">
-        <v>0.95279999999999998</v>
+        <v>1.2733000000000001</v>
       </c>
       <c r="Y21" s="0">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="Z21" s="0">
-        <v>0.87370000000000003</v>
+        <v>1.2804</v>
       </c>
       <c r="AA21" s="0">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AB21" s="0">
-        <v>0.86780000000000002</v>
+        <v>1.2828999999999999</v>
       </c>
       <c r="AC21" s="0">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AD21" s="0">
-        <v>0.94710000000000005</v>
+        <v>1.3298000000000001</v>
       </c>
       <c r="AE21" s="0">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AF21" s="0">
-        <v>0.93569999999999998</v>
+        <v>1.3179000000000001</v>
       </c>
       <c r="AG21" s="0">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AH21" s="0">
-        <v>0.82399999999999995</v>
+        <v>1.2467999999999999</v>
       </c>
       <c r="AI21" s="0">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AJ21" s="0">
-        <v>0.74219999999999997</v>
+        <v>1.2539</v>
       </c>
       <c r="AK21" s="0">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AL21" s="0">
-        <v>0.57289999999999996</v>
+        <v>0.85770000000000002</v>
       </c>
       <c r="AM21" s="0">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AN21" s="0">
-        <v>0.23649999999999999</v>
+        <v>0.4743</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B22" s="0">
-        <v>0.028799999999999999</v>
+        <v>0.22770000000000001</v>
       </c>
       <c r="C22" s="0">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D22" s="0">
-        <v>0.17169999999999999</v>
+        <v>0.35699999999999999</v>
       </c>
       <c r="E22" s="0">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F22" s="0">
-        <v>0.26050000000000001</v>
+        <v>0.44330000000000003</v>
       </c>
       <c r="G22" s="0">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H22" s="0">
-        <v>0.4214</v>
+        <v>0.5817</v>
       </c>
       <c r="I22" s="0">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J22" s="0">
-        <v>0.5111</v>
+        <v>0.64770000000000005</v>
       </c>
       <c r="K22" s="0">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="L22" s="0">
-        <v>0.63929999999999998</v>
+        <v>0.70220000000000005</v>
       </c>
       <c r="M22" s="0">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="N22" s="0">
-        <v>0.79820000000000002</v>
+        <v>0.86060000000000003</v>
       </c>
       <c r="O22" s="0">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="P22" s="0">
-        <v>0.90969999999999995</v>
+        <v>0.92720000000000002</v>
       </c>
       <c r="Q22" s="0">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="R22" s="0">
-        <v>0.89080000000000004</v>
+        <v>1.2496</v>
       </c>
       <c r="S22" s="0">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T22" s="0">
-        <v>0.91890000000000005</v>
+        <v>1.3030999999999999</v>
       </c>
       <c r="U22" s="0">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="V22" s="0">
-        <v>1.0174000000000001</v>
+        <v>1.3301000000000001</v>
       </c>
       <c r="W22" s="0">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="X22" s="0">
-        <v>1.0304</v>
+        <v>1.3393999999999999</v>
       </c>
       <c r="Y22" s="0">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Z22" s="0">
-        <v>0.95650000000000002</v>
+        <v>1.3403</v>
       </c>
       <c r="AA22" s="0">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AB22" s="0">
-        <v>0.9536</v>
+        <v>1.3347</v>
       </c>
       <c r="AC22" s="0">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AD22" s="0">
-        <v>1.0339</v>
+        <v>1.3711</v>
       </c>
       <c r="AE22" s="0">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AF22" s="0">
-        <v>1.0253000000000001</v>
+        <v>1.3540000000000001</v>
       </c>
       <c r="AG22" s="0">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AH22" s="0">
-        <v>0.91930000000000001</v>
+        <v>1.2996000000000001</v>
       </c>
       <c r="AI22" s="0">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AJ22" s="0">
-        <v>0.8327</v>
+        <v>1.2741</v>
       </c>
       <c r="AK22" s="0">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AL22" s="0">
-        <v>0.65159999999999996</v>
+        <v>0.88249999999999995</v>
       </c>
       <c r="AM22" s="0">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AN22" s="0">
-        <v>0.29170000000000001</v>
+        <v>0.51659999999999995</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B23" s="0">
-        <v>0.056899999999999999</v>
+        <v>0.27829999999999999</v>
       </c>
       <c r="C23" s="0">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D23" s="0">
-        <v>0.20880000000000001</v>
+        <v>0.40910000000000002</v>
       </c>
       <c r="E23" s="0">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F23" s="0">
-        <v>0.29399999999999998</v>
+        <v>0.44929999999999998</v>
       </c>
       <c r="G23" s="0">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H23" s="0">
-        <v>0.4572</v>
+        <v>0.61099999999999999</v>
       </c>
       <c r="I23" s="0">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="J23" s="0">
-        <v>0.52270000000000005</v>
+        <v>0.66390000000000005</v>
       </c>
       <c r="K23" s="0">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="L23" s="0">
-        <v>0.65949999999999998</v>
+        <v>0.74050000000000005</v>
       </c>
       <c r="M23" s="0">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="N23" s="0">
-        <v>0.85870000000000002</v>
+        <v>0.89139999999999997</v>
       </c>
       <c r="O23" s="0">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="P23" s="0">
-        <v>0.97319999999999995</v>
+        <v>0.95250000000000001</v>
       </c>
       <c r="Q23" s="0">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="R23" s="0">
-        <v>0.97119999999999995</v>
+        <v>1.2969999999999999</v>
       </c>
       <c r="S23" s="0">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="T23" s="0">
-        <v>0.99939999999999996</v>
+        <v>1.3556999999999999</v>
       </c>
       <c r="U23" s="0">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="V23" s="0">
-        <v>1.0968</v>
+        <v>1.3828</v>
       </c>
       <c r="W23" s="0">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="X23" s="0">
-        <v>1.1104000000000001</v>
+        <v>1.3887</v>
       </c>
       <c r="Y23" s="0">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="Z23" s="0">
-        <v>1.0373000000000001</v>
+        <v>1.3914</v>
       </c>
       <c r="AA23" s="0">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AB23" s="0">
-        <v>1.0389999999999999</v>
+        <v>1.3819999999999999</v>
       </c>
       <c r="AC23" s="0">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AD23" s="0">
-        <v>1.1206</v>
+        <v>1.3952</v>
       </c>
       <c r="AE23" s="0">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AF23" s="0">
-        <v>1.1145</v>
+        <v>1.3707</v>
       </c>
       <c r="AG23" s="0">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AH23" s="0">
-        <v>1.0113000000000001</v>
+        <v>1.3260000000000001</v>
       </c>
       <c r="AI23" s="0">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AJ23" s="0">
-        <v>0.92310000000000003</v>
+        <v>1.2723</v>
       </c>
       <c r="AK23" s="0">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AL23" s="0">
-        <v>0.72870000000000001</v>
+        <v>0.8911</v>
       </c>
       <c r="AM23" s="0">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AN23" s="0">
-        <v>0.34449999999999997</v>
+        <v>0.5575</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B24" s="0">
-        <v>0.065000000000000002</v>
+        <v>0.3271</v>
       </c>
       <c r="C24" s="0">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D24" s="0">
-        <v>0.25280000000000002</v>
+        <v>0.43509999999999999</v>
       </c>
       <c r="E24" s="0">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F24" s="0">
-        <v>0.34150000000000003</v>
+        <v>0.50370000000000004</v>
       </c>
       <c r="G24" s="0">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H24" s="0">
-        <v>0.4884</v>
+        <v>0.66290000000000004</v>
       </c>
       <c r="I24" s="0">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="J24" s="0">
-        <v>0.55320000000000003</v>
+        <v>0.68279999999999996</v>
       </c>
       <c r="K24" s="0">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="L24" s="0">
-        <v>0.67110000000000003</v>
-      </c>
-      <c r="M24" s="0">
-        <v>11</v>
-      </c>
-      <c r="N24" s="0">
-        <v>0.80400000000000005</v>
+        <v>0.78359999999999996</v>
       </c>
       <c r="O24" s="0">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="P24" s="0">
-        <v>1.0551999999999999</v>
+        <v>0.94199999999999995</v>
       </c>
       <c r="Q24" s="0">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="R24" s="0">
-        <v>1.0402</v>
+        <v>1.2902</v>
       </c>
       <c r="S24" s="0">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="T24" s="0">
-        <v>1.0752999999999999</v>
+        <v>1.3853</v>
       </c>
       <c r="U24" s="0">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="V24" s="0">
-        <v>1.1802999999999999</v>
+        <v>1.4087000000000001</v>
       </c>
       <c r="W24" s="0">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="X24" s="0">
-        <v>1.1942999999999999</v>
+        <v>1.4263999999999999</v>
       </c>
       <c r="Y24" s="0">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="Z24" s="0">
-        <v>1.1183000000000001</v>
+        <v>1.4194</v>
       </c>
       <c r="AA24" s="0">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AB24" s="0">
-        <v>1.1238999999999999</v>
+        <v>1.4138999999999999</v>
       </c>
       <c r="AC24" s="0">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AD24" s="0">
-        <v>1.2049000000000001</v>
+        <v>1.4012</v>
       </c>
       <c r="AE24" s="0">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AF24" s="0">
-        <v>1.1986000000000001</v>
+        <v>1.3713</v>
       </c>
       <c r="AG24" s="0">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AH24" s="0">
-        <v>1.1012999999999999</v>
+        <v>1.3361000000000001</v>
       </c>
       <c r="AI24" s="0">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AJ24" s="0">
-        <v>1.0119</v>
+        <v>1.2699</v>
       </c>
       <c r="AK24" s="0">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AL24" s="0">
-        <v>0.78059999999999996</v>
+        <v>0.90159999999999996</v>
       </c>
       <c r="AM24" s="0">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AN24" s="0">
-        <v>0.3947</v>
+        <v>0.59740000000000004</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B25" s="0">
-        <v>0.12039999999999999</v>
+        <v>0.37659999999999999</v>
       </c>
       <c r="C25" s="0">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D25" s="0">
-        <v>0.28739999999999999</v>
+        <v>0.46960000000000002</v>
       </c>
       <c r="E25" s="0">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F25" s="0">
-        <v>0.36270000000000002</v>
+        <v>0.52090000000000003</v>
       </c>
       <c r="G25" s="0">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H25" s="0">
-        <v>0.51939999999999997</v>
+        <v>0.68079999999999996</v>
       </c>
       <c r="I25" s="0">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="J25" s="0">
-        <v>0.57269999999999999</v>
+        <v>0.71899999999999997</v>
       </c>
       <c r="K25" s="0">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="L25" s="0">
-        <v>0.68159999999999998</v>
-      </c>
-      <c r="M25" s="0">
-        <v>12</v>
-      </c>
-      <c r="N25" s="0">
-        <v>0.81610000000000005</v>
-      </c>
-      <c r="O25" s="0">
-        <v>9</v>
-      </c>
-      <c r="P25" s="0">
-        <v>1.1202000000000001</v>
+        <v>0.80379999999999996</v>
       </c>
       <c r="Q25" s="0">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="R25" s="0">
-        <v>1.1265000000000001</v>
+        <v>1.0965</v>
       </c>
       <c r="S25" s="0">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="T25" s="0">
-        <v>1.1627000000000001</v>
+        <v>1.3641000000000001</v>
       </c>
       <c r="U25" s="0">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="V25" s="0">
-        <v>1.2632000000000001</v>
+        <v>1.4319</v>
       </c>
       <c r="W25" s="0">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="X25" s="0">
-        <v>1.2735000000000001</v>
+        <v>1.4332</v>
       </c>
       <c r="Y25" s="0">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="Z25" s="0">
-        <v>1.2000999999999999</v>
+        <v>1.4384999999999999</v>
       </c>
       <c r="AA25" s="0">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AB25" s="0">
-        <v>1.2037</v>
+        <v>1.4212</v>
       </c>
       <c r="AC25" s="0">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AD25" s="0">
-        <v>1.2733000000000001</v>
+        <v>1.3904000000000001</v>
       </c>
       <c r="AE25" s="0">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AF25" s="0">
-        <v>1.2618</v>
+        <v>1.3599000000000001</v>
       </c>
       <c r="AG25" s="0">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AH25" s="0">
-        <v>1.1847000000000001</v>
+        <v>1.3334999999999999</v>
       </c>
       <c r="AI25" s="0">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AJ25" s="0">
-        <v>1.0790999999999999</v>
+        <v>1.2367999999999999</v>
       </c>
       <c r="AK25" s="0">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AL25" s="0">
-        <v>0.81940000000000002</v>
+        <v>0.90129999999999999</v>
       </c>
       <c r="AM25" s="0">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AN25" s="0">
-        <v>0.44259999999999999</v>
+        <v>0.63639999999999997</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B26" s="0">
-        <v>0.18049999999999999</v>
+        <v>0.42570000000000002</v>
       </c>
       <c r="C26" s="0">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D26" s="0">
-        <v>0.32279999999999998</v>
+        <v>0.49690000000000001</v>
       </c>
       <c r="E26" s="0">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F26" s="0">
-        <v>0.3836</v>
+        <v>0.56210000000000005</v>
       </c>
       <c r="G26" s="0">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="H26" s="0">
-        <v>0.57340000000000002</v>
+        <v>0.71740000000000004</v>
       </c>
       <c r="I26" s="0">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="J26" s="0">
-        <v>0.59609999999999996</v>
+        <v>0.77580000000000005</v>
       </c>
       <c r="K26" s="0">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L26" s="0">
-        <v>0.70220000000000005</v>
-      </c>
-      <c r="M26" s="0">
-        <v>13</v>
-      </c>
-      <c r="N26" s="0">
-        <v>0.83540000000000003</v>
-      </c>
-      <c r="O26" s="0">
+        <v>0.83069999999999999</v>
+      </c>
+      <c r="S26" s="0">
         <v>14</v>
       </c>
-      <c r="P26" s="0">
-        <v>0.95250000000000001</v>
-      </c>
-      <c r="Q26" s="0">
-        <v>9</v>
-      </c>
-      <c r="R26" s="0">
-        <v>1.1903999999999999</v>
-      </c>
-      <c r="S26" s="0">
-        <v>9</v>
-      </c>
       <c r="T26" s="0">
-        <v>1.2366999999999999</v>
+        <v>1.3334999999999999</v>
       </c>
       <c r="U26" s="0">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="V26" s="0">
-        <v>1.3301000000000001</v>
+        <v>1.4227000000000001</v>
       </c>
       <c r="W26" s="0">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="X26" s="0">
-        <v>1.3394999999999999</v>
+        <v>1.4317</v>
       </c>
       <c r="Y26" s="0">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="Z26" s="0">
-        <v>1.2803</v>
+        <v>1.4233</v>
       </c>
       <c r="AA26" s="0">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AB26" s="0">
-        <v>1.2828999999999999</v>
+        <v>1.4118</v>
       </c>
       <c r="AC26" s="0">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AD26" s="0">
-        <v>1.3297000000000001</v>
+        <v>1.3687</v>
       </c>
       <c r="AE26" s="0">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AF26" s="0">
-        <v>1.3179000000000001</v>
+        <v>1.3360000000000001</v>
       </c>
       <c r="AG26" s="0">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AH26" s="0">
-        <v>1.2468999999999999</v>
+        <v>1.3236000000000001</v>
       </c>
       <c r="AI26" s="0">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AJ26" s="0">
-        <v>1.1246</v>
+        <v>1.1193</v>
       </c>
       <c r="AK26" s="0">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AL26" s="0">
-        <v>0.85760000000000003</v>
+        <v>0.90739999999999999</v>
       </c>
       <c r="AM26" s="0">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AN26" s="0">
-        <v>0.4884</v>
+        <v>0.67479999999999996</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B27" s="0">
-        <v>0.22770000000000001</v>
+        <v>0.4733</v>
       </c>
       <c r="C27" s="0">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D27" s="0">
-        <v>0.35680000000000001</v>
+        <v>0.52700000000000002</v>
       </c>
       <c r="E27" s="0">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F27" s="0">
-        <v>0.44280000000000003</v>
+        <v>0.60389999999999999</v>
       </c>
       <c r="G27" s="0">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H27" s="0">
-        <v>0.58169999999999999</v>
+        <v>0.76910000000000001</v>
       </c>
       <c r="I27" s="0">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J27" s="0">
-        <v>0.64749999999999996</v>
-      </c>
-      <c r="K27" s="0">
-        <v>12</v>
-      </c>
-      <c r="L27" s="0">
-        <v>0.74050000000000005</v>
-      </c>
-      <c r="M27" s="0">
-        <v>14</v>
-      </c>
-      <c r="N27" s="0">
-        <v>0.86060000000000003</v>
-      </c>
-      <c r="O27" s="0">
+        <v>0.79730000000000001</v>
+      </c>
+      <c r="S27" s="0">
         <v>15</v>
       </c>
-      <c r="P27" s="0">
-        <v>0.94199999999999995</v>
-      </c>
-      <c r="Q27" s="0">
-        <v>10</v>
-      </c>
-      <c r="R27" s="0">
-        <v>1.2495000000000001</v>
-      </c>
-      <c r="S27" s="0">
-        <v>10</v>
-      </c>
       <c r="T27" s="0">
-        <v>1.3030999999999999</v>
+        <v>1.153</v>
       </c>
       <c r="U27" s="0">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="V27" s="0">
-        <v>1.3828</v>
+        <v>1.3281000000000001</v>
       </c>
       <c r="W27" s="0">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="X27" s="0">
-        <v>1.3888</v>
+        <v>1.3815</v>
       </c>
       <c r="Y27" s="0">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="Z27" s="0">
-        <v>1.3401000000000001</v>
+        <v>1.3935</v>
       </c>
       <c r="AA27" s="0">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AB27" s="0">
-        <v>1.3347</v>
-      </c>
-      <c r="AC27" s="0">
-        <v>11</v>
-      </c>
-      <c r="AD27" s="0">
-        <v>1.371</v>
-      </c>
-      <c r="AE27" s="0">
-        <v>11</v>
-      </c>
-      <c r="AF27" s="0">
-        <v>1.3540000000000001</v>
+        <v>1.3897999999999999</v>
       </c>
       <c r="AG27" s="0">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AH27" s="0">
-        <v>1.2996000000000001</v>
-      </c>
-      <c r="AI27" s="0">
-        <v>10</v>
-      </c>
-      <c r="AJ27" s="0">
-        <v>1.1543000000000001</v>
+        <v>1.2977000000000001</v>
       </c>
       <c r="AK27" s="0">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AL27" s="0">
-        <v>0.88249999999999995</v>
+        <v>0.92749999999999999</v>
       </c>
       <c r="AM27" s="0">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AN27" s="0">
-        <v>0.5323</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>11</v>
-      </c>
-      <c r="B28" s="0">
-        <v>0.27800000000000002</v>
-      </c>
-      <c r="C28" s="0">
-        <v>11</v>
-      </c>
-      <c r="D28" s="0">
-        <v>0.40620000000000001</v>
-      </c>
-      <c r="E28" s="0">
-        <v>11</v>
-      </c>
-      <c r="F28" s="0">
-        <v>0.44879999999999998</v>
-      </c>
-      <c r="G28" s="0">
-        <v>11</v>
-      </c>
-      <c r="H28" s="0">
-        <v>0.61099999999999999</v>
-      </c>
-      <c r="I28" s="0">
-        <v>11</v>
-      </c>
-      <c r="J28" s="0">
-        <v>0.66400000000000003</v>
-      </c>
-      <c r="K28" s="0">
-        <v>13</v>
-      </c>
-      <c r="L28" s="0">
-        <v>0.78359999999999996</v>
-      </c>
-      <c r="M28" s="0">
-        <v>15</v>
-      </c>
-      <c r="N28" s="0">
-        <v>0.89139999999999997</v>
-      </c>
-      <c r="Q28" s="0">
-        <v>11</v>
-      </c>
-      <c r="R28" s="0">
-        <v>1.2969999999999999</v>
-      </c>
-      <c r="S28" s="0">
-        <v>11</v>
-      </c>
-      <c r="T28" s="0">
-        <v>1.3556999999999999</v>
-      </c>
-      <c r="U28" s="0">
-        <v>12</v>
-      </c>
-      <c r="V28" s="0">
-        <v>1.4088000000000001</v>
-      </c>
-      <c r="W28" s="0">
-        <v>12</v>
-      </c>
-      <c r="X28" s="0">
-        <v>1.4263999999999999</v>
-      </c>
-      <c r="Y28" s="0">
-        <v>11</v>
-      </c>
-      <c r="Z28" s="0">
-        <v>1.3912</v>
-      </c>
-      <c r="AA28" s="0">
-        <v>11</v>
-      </c>
-      <c r="AB28" s="0">
-        <v>1.3819999999999999</v>
-      </c>
-      <c r="AC28" s="0">
-        <v>12</v>
-      </c>
-      <c r="AD28" s="0">
-        <v>1.3951</v>
-      </c>
-      <c r="AE28" s="0">
-        <v>12</v>
-      </c>
-      <c r="AF28" s="0">
-        <v>1.3707</v>
-      </c>
-      <c r="AG28" s="0">
-        <v>11</v>
-      </c>
-      <c r="AH28" s="0">
-        <v>1.3260000000000001</v>
-      </c>
-      <c r="AI28" s="0">
-        <v>11</v>
-      </c>
-      <c r="AJ28" s="0">
-        <v>1.1440999999999999</v>
-      </c>
-      <c r="AK28" s="0">
-        <v>11</v>
-      </c>
-      <c r="AL28" s="0">
-        <v>0.8911</v>
-      </c>
-      <c r="AM28" s="0">
-        <v>11</v>
-      </c>
-      <c r="AN28" s="0">
-        <v>0.5746</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>12</v>
-      </c>
-      <c r="B29" s="0">
-        <v>0.32700000000000001</v>
-      </c>
-      <c r="C29" s="0">
-        <v>12</v>
-      </c>
-      <c r="D29" s="0">
-        <v>0.43519999999999998</v>
-      </c>
-      <c r="E29" s="0">
-        <v>12</v>
-      </c>
-      <c r="F29" s="0">
-        <v>0.50280000000000002</v>
-      </c>
-      <c r="G29" s="0">
-        <v>12</v>
-      </c>
-      <c r="H29" s="0">
-        <v>0.66290000000000004</v>
-      </c>
-      <c r="I29" s="0">
-        <v>12</v>
-      </c>
-      <c r="J29" s="0">
-        <v>0.68279999999999996</v>
-      </c>
-      <c r="K29" s="0">
-        <v>14</v>
-      </c>
-      <c r="L29" s="0">
-        <v>0.80379999999999996</v>
-      </c>
-      <c r="Q29" s="0">
-        <v>12</v>
-      </c>
-      <c r="R29" s="0">
-        <v>1.2897000000000001</v>
-      </c>
-      <c r="S29" s="0">
-        <v>12</v>
-      </c>
-      <c r="T29" s="0">
-        <v>1.3853</v>
-      </c>
-      <c r="U29" s="0">
-        <v>13</v>
-      </c>
-      <c r="V29" s="0">
-        <v>1.4319999999999999</v>
-      </c>
-      <c r="W29" s="0">
-        <v>13</v>
-      </c>
-      <c r="X29" s="0">
-        <v>1.4332</v>
-      </c>
-      <c r="Y29" s="0">
-        <v>12</v>
-      </c>
-      <c r="Z29" s="0">
-        <v>1.4193</v>
-      </c>
-      <c r="AA29" s="0">
-        <v>12</v>
-      </c>
-      <c r="AB29" s="0">
-        <v>1.4138999999999999</v>
-      </c>
-      <c r="AC29" s="0">
-        <v>13</v>
-      </c>
-      <c r="AD29" s="0">
-        <v>1.401</v>
-      </c>
-      <c r="AE29" s="0">
-        <v>13</v>
-      </c>
-      <c r="AF29" s="0">
-        <v>1.3713</v>
-      </c>
-      <c r="AG29" s="0">
-        <v>12</v>
-      </c>
-      <c r="AH29" s="0">
-        <v>1.3362000000000001</v>
-      </c>
-      <c r="AI29" s="0">
-        <v>12</v>
-      </c>
-      <c r="AJ29" s="0">
-        <v>1.1094999999999999</v>
-      </c>
-      <c r="AK29" s="0">
-        <v>12</v>
-      </c>
-      <c r="AL29" s="0">
-        <v>0.90159999999999996</v>
-      </c>
-      <c r="AM29" s="0">
-        <v>12</v>
-      </c>
-      <c r="AN29" s="0">
-        <v>0.61570000000000003</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>13</v>
-      </c>
-      <c r="B30" s="0">
-        <v>0.37659999999999999</v>
-      </c>
-      <c r="C30" s="0">
-        <v>13</v>
-      </c>
-      <c r="D30" s="0">
-        <v>0.46970000000000001</v>
-      </c>
-      <c r="E30" s="0">
-        <v>13</v>
-      </c>
-      <c r="F30" s="0">
-        <v>0.5212</v>
-      </c>
-      <c r="G30" s="0">
-        <v>13</v>
-      </c>
-      <c r="H30" s="0">
-        <v>0.68079999999999996</v>
-      </c>
-      <c r="I30" s="0">
-        <v>13</v>
-      </c>
-      <c r="J30" s="0">
-        <v>0.71899999999999997</v>
-      </c>
-      <c r="K30" s="0">
-        <v>15</v>
-      </c>
-      <c r="L30" s="0">
-        <v>0.83079999999999998</v>
-      </c>
-      <c r="S30" s="0">
-        <v>13</v>
-      </c>
-      <c r="T30" s="0">
-        <v>1.3642000000000001</v>
-      </c>
-      <c r="U30" s="0">
-        <v>14</v>
-      </c>
-      <c r="V30" s="0">
-        <v>1.4228000000000001</v>
-      </c>
-      <c r="W30" s="0">
-        <v>14</v>
-      </c>
-      <c r="X30" s="0">
-        <v>1.4318</v>
-      </c>
-      <c r="Y30" s="0">
-        <v>13</v>
-      </c>
-      <c r="Z30" s="0">
-        <v>1.4383999999999999</v>
-      </c>
-      <c r="AA30" s="0">
-        <v>13</v>
-      </c>
-      <c r="AB30" s="0">
-        <v>1.4212</v>
-      </c>
-      <c r="AC30" s="0">
-        <v>14</v>
-      </c>
-      <c r="AD30" s="0">
-        <v>1.3903000000000001</v>
-      </c>
-      <c r="AE30" s="0">
-        <v>14</v>
-      </c>
-      <c r="AF30" s="0">
-        <v>1.3599000000000001</v>
-      </c>
-      <c r="AG30" s="0">
-        <v>13</v>
-      </c>
-      <c r="AH30" s="0">
-        <v>1.3334999999999999</v>
-      </c>
-      <c r="AI30" s="0">
-        <v>13</v>
-      </c>
-      <c r="AJ30" s="0">
-        <v>1.0439000000000001</v>
-      </c>
-      <c r="AK30" s="0">
-        <v>13</v>
-      </c>
-      <c r="AL30" s="0">
-        <v>0.90129999999999999</v>
-      </c>
-      <c r="AM30" s="0">
-        <v>13</v>
-      </c>
-      <c r="AN30" s="0">
-        <v>0.65559999999999996</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>14</v>
-      </c>
-      <c r="B31" s="0">
-        <v>0.42570000000000002</v>
-      </c>
-      <c r="C31" s="0">
-        <v>14</v>
-      </c>
-      <c r="D31" s="0">
-        <v>0.49669999999999997</v>
-      </c>
-      <c r="E31" s="0">
-        <v>14</v>
-      </c>
-      <c r="F31" s="0">
-        <v>0.56230000000000002</v>
-      </c>
-      <c r="G31" s="0">
-        <v>14</v>
-      </c>
-      <c r="H31" s="0">
-        <v>0.71740000000000004</v>
-      </c>
-      <c r="I31" s="0">
-        <v>14</v>
-      </c>
-      <c r="J31" s="0">
-        <v>0.77600000000000002</v>
-      </c>
-      <c r="S31" s="0">
-        <v>14</v>
-      </c>
-      <c r="T31" s="0">
-        <v>1.3337000000000001</v>
-      </c>
-      <c r="U31" s="0">
-        <v>15</v>
-      </c>
-      <c r="V31" s="0">
-        <v>1.3282</v>
-      </c>
-      <c r="W31" s="0">
-        <v>15</v>
-      </c>
-      <c r="X31" s="0">
-        <v>1.3815999999999999</v>
-      </c>
-      <c r="Y31" s="0">
-        <v>14</v>
-      </c>
-      <c r="Z31" s="0">
-        <v>1.4232</v>
-      </c>
-      <c r="AA31" s="0">
-        <v>14</v>
-      </c>
-      <c r="AB31" s="0">
-        <v>1.4117999999999999</v>
-      </c>
-      <c r="AC31" s="0">
-        <v>15</v>
-      </c>
-      <c r="AD31" s="0">
-        <v>1.3685</v>
-      </c>
-      <c r="AE31" s="0">
-        <v>15</v>
-      </c>
-      <c r="AF31" s="0">
-        <v>1.3359000000000001</v>
-      </c>
-      <c r="AG31" s="0">
-        <v>14</v>
-      </c>
-      <c r="AH31" s="0">
-        <v>1.3237000000000001</v>
-      </c>
-      <c r="AI31" s="0">
-        <v>14</v>
-      </c>
-      <c r="AJ31" s="0">
-        <v>0.92820000000000003</v>
-      </c>
-      <c r="AK31" s="0">
-        <v>14</v>
-      </c>
-      <c r="AL31" s="0">
-        <v>0.90739999999999998</v>
-      </c>
-      <c r="AM31" s="0">
-        <v>14</v>
-      </c>
-      <c r="AN31" s="0">
-        <v>0.6946</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>15</v>
-      </c>
-      <c r="B32" s="0">
-        <v>0.47339999999999999</v>
-      </c>
-      <c r="C32" s="0">
-        <v>15</v>
-      </c>
-      <c r="D32" s="0">
-        <v>0.52649999999999997</v>
-      </c>
-      <c r="E32" s="0">
-        <v>15</v>
-      </c>
-      <c r="F32" s="0">
-        <v>0.60340000000000005</v>
-      </c>
-      <c r="G32" s="0">
-        <v>15</v>
-      </c>
-      <c r="H32" s="0">
-        <v>0.76900000000000002</v>
-      </c>
-      <c r="I32" s="0">
-        <v>15</v>
-      </c>
-      <c r="J32" s="0">
-        <v>0.79730000000000001</v>
-      </c>
-      <c r="S32" s="0">
-        <v>15</v>
-      </c>
-      <c r="T32" s="0">
-        <v>1.1532</v>
-      </c>
-      <c r="Y32" s="0">
-        <v>15</v>
-      </c>
-      <c r="Z32" s="0">
-        <v>1.3934</v>
-      </c>
-      <c r="AA32" s="0">
-        <v>15</v>
-      </c>
-      <c r="AB32" s="0">
-        <v>1.3897999999999999</v>
-      </c>
-      <c r="AG32" s="0">
-        <v>15</v>
-      </c>
-      <c r="AH32" s="0">
-        <v>1.2977000000000001</v>
-      </c>
-      <c r="AI32" s="0">
-        <v>15</v>
-      </c>
-      <c r="AJ32" s="0">
-        <v>0.77339999999999998</v>
-      </c>
-      <c r="AK32" s="0">
-        <v>15</v>
-      </c>
-      <c r="AL32" s="0">
-        <v>0.92749999999999999</v>
-      </c>
-      <c r="AM32" s="0">
-        <v>15</v>
-      </c>
-      <c r="AN32" s="0">
-        <v>0.7329</v>
+        <v>0.71279999999999999</v>
       </c>
     </row>
   </sheetData>
